--- a/data/2023_SAFE_biomass_estimate.xlsx
+++ b/data/2023_SAFE_biomass_estimate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grant.adams\GitHub\GOA ATF ESP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D4F097-5B38-4992-9199-C528249D275A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9265BF56-98B7-417A-8152-76565B7F1CFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="1455" windowWidth="24645" windowHeight="13380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>Year</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Recruitment</t>
+  </si>
+  <si>
+    <t>Catch</t>
   </si>
 </sst>
 </file>
@@ -2074,7 +2077,7 @@
   <dimension ref="A1:BB57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2092,6 +2095,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -2106,6 +2112,9 @@
       <c r="D2" s="3">
         <v>601013000</v>
       </c>
+      <c r="E2">
+        <v>9447.0400000000009</v>
+      </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -2119,6 +2128,9 @@
       </c>
       <c r="D3" s="3">
         <v>694993000</v>
+      </c>
+      <c r="E3">
+        <v>8407.9599999999991</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -2181,6 +2193,9 @@
       <c r="D4" s="3">
         <v>753141000</v>
       </c>
+      <c r="E4">
+        <v>7577.53</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -2242,6 +2257,9 @@
       <c r="D5" s="3">
         <v>682679000</v>
       </c>
+      <c r="E5">
+        <v>7846.2</v>
+      </c>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
@@ -2264,6 +2282,9 @@
       <c r="D6" s="3">
         <v>568624000</v>
       </c>
+      <c r="E6">
+        <v>7431.79</v>
+      </c>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
@@ -2285,6 +2306,9 @@
       </c>
       <c r="D7" s="3">
         <v>551128000</v>
+      </c>
+      <c r="E7">
+        <v>4638.74</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2347,6 +2371,9 @@
       <c r="D8" s="3">
         <v>633613000</v>
       </c>
+      <c r="E8">
+        <v>6330.08</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -2408,6 +2435,9 @@
       <c r="D9" s="3">
         <v>868275000</v>
       </c>
+      <c r="E9">
+        <v>3456.04</v>
+      </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -2422,6 +2452,9 @@
       <c r="D10" s="3">
         <v>1220710000</v>
       </c>
+      <c r="E10">
+        <v>1538.72</v>
+      </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2436,6 +2469,9 @@
       <c r="D11" s="3">
         <v>1065810000</v>
       </c>
+      <c r="E11">
+        <v>1220.8800000000001</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
@@ -2451,6 +2487,9 @@
       <c r="D12" s="3">
         <v>1007980000</v>
       </c>
+      <c r="E12">
+        <v>4962.34</v>
+      </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
@@ -2466,6 +2505,9 @@
       <c r="D13" s="3">
         <v>1088210000</v>
       </c>
+      <c r="E13">
+        <v>5137.38</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
@@ -2481,6 +2523,9 @@
       <c r="D14" s="3">
         <v>1029070000</v>
       </c>
+      <c r="E14">
+        <v>2583.5300000000002</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:54" x14ac:dyDescent="0.25">
@@ -2496,6 +2541,9 @@
       <c r="D15" s="3">
         <v>891503000</v>
       </c>
+      <c r="E15">
+        <v>7705.03</v>
+      </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
@@ -2511,6 +2559,9 @@
       <c r="D16" s="3">
         <v>964597000</v>
       </c>
+      <c r="E16">
+        <v>17385.7</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2526,6 +2577,9 @@
       <c r="D17" s="3">
         <v>941008000</v>
       </c>
+      <c r="E17">
+        <v>21912.1</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2541,6 +2595,9 @@
       <c r="D18" s="3">
         <v>719768000</v>
       </c>
+      <c r="E18">
+        <v>19074.900000000001</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2556,6 +2613,9 @@
       <c r="D19" s="3">
         <v>715897000</v>
       </c>
+      <c r="E19">
+        <v>22915.5</v>
+      </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2571,6 +2631,9 @@
       <c r="D20" s="3">
         <v>770326000</v>
       </c>
+      <c r="E20">
+        <v>18277.7</v>
+      </c>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2586,6 +2649,9 @@
       <c r="D21" s="3">
         <v>747329000</v>
       </c>
+      <c r="E21">
+        <v>22480.9</v>
+      </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2601,6 +2667,9 @@
       <c r="D22" s="3">
         <v>880412000</v>
       </c>
+      <c r="E22">
+        <v>16360.9</v>
+      </c>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2616,6 +2685,9 @@
       <c r="D23" s="3">
         <v>1108610000</v>
       </c>
+      <c r="E23">
+        <v>12956.4</v>
+      </c>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2631,6 +2703,9 @@
       <c r="D24" s="3">
         <v>1202270000</v>
       </c>
+      <c r="E24">
+        <v>16141.9</v>
+      </c>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2646,6 +2721,9 @@
       <c r="D25" s="3">
         <v>1555480000</v>
       </c>
+      <c r="E25">
+        <v>24206.7</v>
+      </c>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2661,6 +2739,9 @@
       <c r="D26" s="3">
         <v>1032550000</v>
       </c>
+      <c r="E26">
+        <v>19924.900000000001</v>
+      </c>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2676,6 +2757,9 @@
       <c r="D27" s="3">
         <v>957785000</v>
       </c>
+      <c r="E27">
+        <v>21212.6</v>
+      </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2691,6 +2775,9 @@
       <c r="D28" s="3">
         <v>882391000</v>
       </c>
+      <c r="E28">
+        <v>30254.5</v>
+      </c>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2706,6 +2793,9 @@
       <c r="D29" s="3">
         <v>938885000</v>
       </c>
+      <c r="E29">
+        <v>15755.4</v>
+      </c>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2721,6 +2811,9 @@
       <c r="D30" s="3">
         <v>985795000</v>
       </c>
+      <c r="E30">
+        <v>19988</v>
+      </c>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2736,6 +2829,9 @@
       <c r="D31" s="3">
         <v>912955000</v>
       </c>
+      <c r="E31">
+        <v>27740</v>
+      </c>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2751,6 +2847,9 @@
       <c r="D32" s="3">
         <v>662066000</v>
       </c>
+      <c r="E32">
+        <v>25509.599999999999</v>
+      </c>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2766,6 +2865,9 @@
       <c r="D33" s="3">
         <v>644075000</v>
       </c>
+      <c r="E33">
+        <v>29270</v>
+      </c>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2781,6 +2883,9 @@
       <c r="D34" s="3">
         <v>463970000</v>
       </c>
+      <c r="E34">
+        <v>24911.8</v>
+      </c>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2796,6 +2901,9 @@
       <c r="D35" s="3">
         <v>451717000</v>
       </c>
+      <c r="E35">
+        <v>24495.200000000001</v>
+      </c>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2811,6 +2919,9 @@
       <c r="D36" s="3">
         <v>600732000</v>
       </c>
+      <c r="E36">
+        <v>30965.9</v>
+      </c>
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2826,6 +2937,9 @@
       <c r="D37" s="3">
         <v>744114000</v>
       </c>
+      <c r="E37">
+        <v>20620</v>
+      </c>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2841,6 +2955,9 @@
       <c r="D38" s="3">
         <v>781273000</v>
       </c>
+      <c r="E38">
+        <v>21537.8</v>
+      </c>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2856,6 +2973,9 @@
       <c r="D39" s="3">
         <v>639415000</v>
       </c>
+      <c r="E39">
+        <v>36311</v>
+      </c>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2871,6 +2991,9 @@
       <c r="D40" s="3">
         <v>550236000</v>
       </c>
+      <c r="E40">
+        <v>19084.900000000001</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="K40" s="3"/>
     </row>
@@ -2887,6 +3010,9 @@
       <c r="D41" s="3">
         <v>633468000</v>
       </c>
+      <c r="E41">
+        <v>19819.8</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="K41" s="3"/>
     </row>
@@ -2903,6 +3029,9 @@
       <c r="D42" s="3">
         <v>684650000</v>
       </c>
+      <c r="E42">
+        <v>26902.400000000001</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="K42" s="3"/>
     </row>
@@ -2919,6 +3048,9 @@
       <c r="D43" s="3">
         <v>974684000</v>
       </c>
+      <c r="E43">
+        <v>18833</v>
+      </c>
       <c r="I43" s="3"/>
       <c r="K43" s="3"/>
     </row>
@@ -2935,6 +3067,9 @@
       <c r="D44" s="3">
         <v>496959000</v>
       </c>
+      <c r="E44">
+        <v>24584.7</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="K44" s="3"/>
     </row>
@@ -2951,6 +3086,9 @@
       <c r="D45" s="3">
         <v>643247000</v>
       </c>
+      <c r="E45">
+        <v>21125</v>
+      </c>
       <c r="I45" s="3"/>
       <c r="K45" s="3"/>
     </row>
@@ -2967,6 +3105,9 @@
       <c r="D46" s="3">
         <v>684898000</v>
       </c>
+      <c r="E46">
+        <v>9988.0300000000007</v>
+      </c>
       <c r="I46" s="3"/>
       <c r="K46" s="3"/>
     </row>
@@ -2983,6 +3124,9 @@
       <c r="D47" s="3">
         <v>713088000</v>
       </c>
+      <c r="E47">
+        <v>11630.1</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="K47" s="3"/>
     </row>
@@ -2998,6 +3142,9 @@
       </c>
       <c r="D48" s="3">
         <v>436000000</v>
+      </c>
+      <c r="E48">
+        <v>9028.42</v>
       </c>
       <c r="I48" s="3"/>
     </row>

--- a/data/2023_SAFE_biomass_estimate.xlsx
+++ b/data/2023_SAFE_biomass_estimate.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grant.adams\GitHub\GOA ATF ESP\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/GOA-ATF-ESP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E622F8B9-7AED-45A4-83E3-EDE8692B5F14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7554D8-F668-0A41-B6E9-C17BA8614412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1455" windowWidth="24645" windowHeight="13380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023 SAFE" sheetId="1" r:id="rId1"/>
     <sheet name="2023 Multinomial SAFE" sheetId="2" r:id="rId2"/>
     <sheet name="2023 Multinomial-Sel SAFE" sheetId="3" r:id="rId3"/>
     <sheet name="2023 SAFE Comp" sheetId="4" r:id="rId4"/>
+    <sheet name="2023 SAFE PredSrv" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="133">
   <si>
     <t>Year</t>
   </si>
@@ -425,6 +426,9 @@
   <si>
     <t>ATF_total_fishery</t>
   </si>
+  <si>
+    <t>Pred</t>
+  </si>
 </sst>
 </file>
 
@@ -475,10 +479,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -502,9 +504,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -542,7 +544,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -648,7 +650,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -790,7 +792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -804,862 +806,764 @@
       <selection sqref="A1:D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1977</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>1226790</v>
       </c>
       <c r="C2">
         <v>724815</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>582422000</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1978</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>1217810</v>
       </c>
       <c r="C3">
         <v>718249</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>641301000</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1979</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>1215740</v>
       </c>
       <c r="C4">
         <v>711828</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>691238000</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>1980</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>1216140</v>
       </c>
       <c r="C5">
         <v>704873</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>636382000</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>1981</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>1213400</v>
       </c>
       <c r="C6">
         <v>696723</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>546052000</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>1982</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>1208390</v>
       </c>
       <c r="C7">
         <v>689363</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>527652000</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>1983</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>1207390</v>
       </c>
       <c r="C8">
         <v>686971</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>596923000</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>1984</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>1215950</v>
       </c>
       <c r="C9">
         <v>687231</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>813719000</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>1985</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>1254220</v>
       </c>
       <c r="C10">
         <v>693349</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>1187350000</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="H10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>1986</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>1310600</v>
       </c>
       <c r="C11">
         <v>700709</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>1152620000</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>1987</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>1377860</v>
       </c>
       <c r="C12">
         <v>704594</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>1104260000</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>1988</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>1449430</v>
       </c>
       <c r="C13">
         <v>703313</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>1124720000</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>1989</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>1521240</v>
       </c>
       <c r="C14">
         <v>707215</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>1055280000</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>1990</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>1586450</v>
       </c>
       <c r="C15">
         <v>728177</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>905194000</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>1991</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>1640960</v>
       </c>
       <c r="C16">
         <v>765060</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>964090000</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>1992</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>1677270</v>
       </c>
       <c r="C17">
         <v>807829</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>930378000</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>1993</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>1692900</v>
       </c>
       <c r="C18">
         <v>849470</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>743926000</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>1994</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>1699780</v>
       </c>
       <c r="C19">
         <v>890059</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>734358000</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>1995</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>1695570</v>
       </c>
       <c r="C20">
         <v>920501</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>787372000</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>1996</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>1689500</v>
       </c>
       <c r="C21">
         <v>945272</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>765874000</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>1997</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>1683180</v>
       </c>
       <c r="C22">
         <v>958252</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>930586000</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>1998</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>1700020</v>
       </c>
       <c r="C23">
         <v>969209</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>1203590000</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>1999</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>1736670</v>
       </c>
       <c r="C24">
         <v>973435</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>1303120000</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>2000</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>1800430</v>
       </c>
       <c r="C25">
         <v>966473</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>1656310000</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>2001</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>1846470</v>
       </c>
       <c r="C26">
         <v>950328</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>1081590000</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>2002</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>1889010</v>
       </c>
       <c r="C27">
         <v>941886</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>972880000</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>2003</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="1">
         <v>1916900</v>
       </c>
       <c r="C28">
         <v>943538</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>888208000</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>2004</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>1926270</v>
       </c>
       <c r="C29">
         <v>956299</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>929757000</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>2005</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="1">
         <v>1943520</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>1000340</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>943956000</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>2006</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="1">
         <v>1945310</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>1050110</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>883188000</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>2007</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="1">
         <v>1919510</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>1084230</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>646389000</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>2008</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>1882540</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>1099510</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>618346000</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>2009</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>1823170</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>1095630</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>462008000</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>2010</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="1">
         <v>1755900</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <v>1087580</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>451636000</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>2011</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="1">
         <v>1687800</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>1076290</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
         <v>578226000</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>2012</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>1618640</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <v>1052980</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>689346000</v>
       </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>2013</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="1">
         <v>1566520</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <v>1027140</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>698348000</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>2014</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="1">
         <v>1513900</v>
       </c>
       <c r="C39">
         <v>988791</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>570987000</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>2015</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="1">
         <v>1446220</v>
       </c>
       <c r="C40">
         <v>929246</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>507349000</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>2016</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>1402000</v>
       </c>
       <c r="C41">
         <v>882988</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <v>582864000</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>2017</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="1">
         <v>1363720</v>
       </c>
       <c r="C42">
         <v>842127</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="1">
         <v>637558000</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>2018</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="1">
         <v>1336460</v>
       </c>
       <c r="C43">
         <v>805603</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
         <v>869022000</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>2019</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="1">
         <v>1314610</v>
       </c>
       <c r="C44">
         <v>783188</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="1">
         <v>562924000</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>2020</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>1294130</v>
       </c>
       <c r="C45">
         <v>757000</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
         <v>670248000</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>2021</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="1">
         <v>1281310</v>
       </c>
       <c r="C46">
         <v>730685</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="1">
         <v>713068000</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>2022</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="1">
         <v>1284260</v>
       </c>
       <c r="C47">
         <v>716967</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="1">
         <v>714778000</v>
       </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>2023</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="1">
         <v>1273800</v>
       </c>
       <c r="C48">
         <v>709254</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="1">
         <v>436000000</v>
       </c>
     </row>
@@ -1676,787 +1580,695 @@
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="10.875" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1977</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>1187880</v>
       </c>
       <c r="C2">
         <v>683386</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>605490000</v>
       </c>
-      <c r="E2"/>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1978</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>1187380</v>
       </c>
       <c r="C3">
         <v>682522</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>682866000</v>
       </c>
-      <c r="E3"/>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1979</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>1194990</v>
       </c>
       <c r="C4">
         <v>681475</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>745158000</v>
       </c>
-      <c r="E4"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>1980</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>1204970</v>
       </c>
       <c r="C5">
         <v>679190</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>674859000</v>
       </c>
-      <c r="E5"/>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>1981</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>1210850</v>
       </c>
       <c r="C6">
         <v>675131</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>568368000</v>
       </c>
-      <c r="E6"/>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>1982</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>1213530</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>671818</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>549460000</v>
       </c>
-      <c r="E7"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>1983</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>1219560</v>
       </c>
       <c r="C8">
         <v>674123</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>625398000</v>
       </c>
-      <c r="E8"/>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>1984</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>1235580</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>680130</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>864931000</v>
       </c>
-      <c r="E9"/>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>1985</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>1280530</v>
       </c>
       <c r="C10">
         <v>692596</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>1222700000</v>
       </c>
-      <c r="E10"/>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>1986</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>1337670</v>
       </c>
       <c r="C11">
         <v>705866</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>1084360000</v>
       </c>
-      <c r="E11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>1987</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>1401180</v>
       </c>
       <c r="C12">
         <v>714454</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>1023850000</v>
       </c>
-      <c r="E12"/>
-      <c r="G12"/>
-      <c r="AL12" s="2"/>
-      <c r="AM12" s="2"/>
-      <c r="AN12" s="2"/>
-      <c r="AO12" s="2"/>
-      <c r="AP12" s="2"/>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="2"/>
-      <c r="AS12" s="2"/>
-      <c r="AT12" s="2"/>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>1988</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>1467720</v>
       </c>
       <c r="C13">
         <v>716879</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>1091420000</v>
       </c>
-      <c r="E13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>1989</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>1534570</v>
       </c>
       <c r="C14">
         <v>724156</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>1048170000</v>
       </c>
-      <c r="E14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>1990</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>1595040</v>
       </c>
       <c r="C15">
         <v>748272</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>897513000</v>
       </c>
-      <c r="E15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>1991</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>1645930</v>
       </c>
       <c r="C16">
         <v>786560</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>968279000</v>
       </c>
-      <c r="E16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>1992</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>1679090</v>
       </c>
       <c r="C17">
         <v>826609</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>925601000</v>
       </c>
-      <c r="E17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>1993</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>1691590</v>
       </c>
       <c r="C18">
         <v>862008</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>728317000</v>
       </c>
-      <c r="E18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>1994</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>1695810</v>
       </c>
       <c r="C19">
         <v>896255</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>725103000</v>
       </c>
-      <c r="E19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>1995</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>1689270</v>
       </c>
       <c r="C20">
         <v>922368</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>777965000</v>
       </c>
-      <c r="E20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>1996</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>1680730</v>
       </c>
       <c r="C21">
         <v>944673</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>747685000</v>
       </c>
-      <c r="E21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>1997</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>1670990</v>
       </c>
       <c r="C22">
         <v>956320</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>893119000</v>
       </c>
-      <c r="E22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>1998</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>1681020</v>
       </c>
       <c r="C23">
         <v>966318</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>1112310000</v>
       </c>
-      <c r="E23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>1999</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>1708130</v>
       </c>
       <c r="C24">
         <v>969417</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>1201560000</v>
       </c>
-      <c r="E24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>2000</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>1759890</v>
       </c>
       <c r="C25">
         <v>961122</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>1548970000</v>
       </c>
-      <c r="E25"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>2001</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>1795670</v>
       </c>
       <c r="C26">
         <v>943485</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>1038470000</v>
       </c>
-      <c r="E26"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>2002</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>1830620</v>
       </c>
       <c r="C27">
         <v>932865</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>957958000</v>
       </c>
-      <c r="E27"/>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>2003</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="1">
         <v>1853950</v>
       </c>
       <c r="C28">
         <v>930655</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>885082000</v>
       </c>
-      <c r="E28"/>
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>2004</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>1862250</v>
       </c>
       <c r="C29">
         <v>937022</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>943005000</v>
       </c>
-      <c r="E29"/>
-      <c r="G29"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>2005</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="1">
         <v>1881770</v>
       </c>
       <c r="C30">
         <v>972592</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>971863000</v>
       </c>
-      <c r="E30"/>
-      <c r="G30"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>2006</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="1">
         <v>1888300</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>1013680</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>915541000</v>
       </c>
-      <c r="E31"/>
-      <c r="G31"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>2007</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="1">
         <v>1868290</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>1041900</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>659264000</v>
       </c>
-      <c r="E32"/>
-      <c r="G32"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>2008</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>1838240</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>1055350</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>635300000</v>
       </c>
-      <c r="E33"/>
-      <c r="G33"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>2009</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>1785360</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>1052910</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>463503000</v>
       </c>
-      <c r="E34"/>
-      <c r="G34"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>2010</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="1">
         <v>1724140</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <v>1048530</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>454812000</v>
       </c>
-      <c r="E35"/>
-      <c r="G35"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>2011</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="1">
         <v>1662720</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>1042600</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
         <v>604662000</v>
       </c>
-      <c r="E36"/>
-      <c r="G36"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>2012</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>1601560</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <v>1025360</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>740392000</v>
       </c>
-      <c r="E37"/>
-      <c r="G37"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>2013</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="1">
         <v>1559640</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <v>1005150</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>776235000</v>
       </c>
-      <c r="E38"/>
-      <c r="G38"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>2014</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="1">
         <v>1518110</v>
       </c>
       <c r="C39">
         <v>971613</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>638727000</v>
       </c>
-      <c r="E39"/>
-      <c r="G39"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>2015</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="1">
         <v>1460990</v>
       </c>
       <c r="C40">
         <v>916109</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>553546000</v>
       </c>
-      <c r="E40"/>
-      <c r="G40"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>2016</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>1426980</v>
       </c>
       <c r="C41">
         <v>873407</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <v>632694000</v>
       </c>
-      <c r="E41"/>
-      <c r="G41"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>2017</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="1">
         <v>1398050</v>
       </c>
       <c r="C42">
         <v>836839</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="1">
         <v>684799000</v>
       </c>
-      <c r="E42"/>
-      <c r="G42"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>2018</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="1">
         <v>1381650</v>
       </c>
       <c r="C43">
         <v>806176</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
         <v>964654000</v>
       </c>
-      <c r="E43"/>
-      <c r="G43"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>2019</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="1">
         <v>1362720</v>
       </c>
       <c r="C44">
         <v>791092</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="1">
         <v>492254000</v>
       </c>
-      <c r="E44"/>
-      <c r="G44"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>2020</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>1342640</v>
       </c>
       <c r="C45">
         <v>772630</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
         <v>644098000</v>
       </c>
-      <c r="E45"/>
-      <c r="G45"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>2021</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="1">
         <v>1328540</v>
       </c>
       <c r="C46">
         <v>753193</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="1">
         <v>706796000</v>
       </c>
-      <c r="G46"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>2022</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="1">
         <v>1328890</v>
       </c>
       <c r="C47">
         <v>745097</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="1">
         <v>711843000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>2023</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="1">
         <v>1315130</v>
       </c>
       <c r="C48">
         <v>742176</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="1">
         <v>436000000</v>
       </c>
     </row>
@@ -2473,1100 +2285,1100 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1977</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>1147290</v>
       </c>
       <c r="C2">
         <v>650019</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>601013000</v>
       </c>
       <c r="E2">
         <v>9447.0400000000009</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1978</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>1155120</v>
       </c>
       <c r="C3">
         <v>655533</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>694993000</v>
       </c>
       <c r="E3">
         <v>8407.9599999999991</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1979</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>1170000</v>
       </c>
       <c r="C4">
         <v>655842</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>753141000</v>
       </c>
       <c r="E4">
         <v>7577.53</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>1980</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>1186340</v>
       </c>
       <c r="C5">
         <v>653687</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>682679000</v>
       </c>
       <c r="E5">
         <v>7846.2</v>
       </c>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>1981</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>1197100</v>
       </c>
       <c r="C6">
         <v>652266</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>568624000</v>
       </c>
       <c r="E6">
         <v>7431.79</v>
       </c>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>1982</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>1203780</v>
       </c>
       <c r="C7">
         <v>654391</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>551128000</v>
       </c>
       <c r="E7">
         <v>4638.74</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>1983</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>1213430</v>
       </c>
       <c r="C8">
         <v>661960</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>633613000</v>
       </c>
       <c r="E8">
         <v>6330.08</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1"/>
+      <c r="BB8" s="1"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>1984</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>1232120</v>
       </c>
       <c r="C9">
         <v>671601</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>868275000</v>
       </c>
       <c r="E9">
         <v>3456.04</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>1985</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>1279360</v>
       </c>
       <c r="C10">
         <v>687284</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>1220710000</v>
       </c>
       <c r="E10">
         <v>1538.72</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>1986</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>1337040</v>
       </c>
       <c r="C11">
         <v>702867</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>1065810000</v>
       </c>
       <c r="E11">
         <v>1220.8800000000001</v>
       </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>1987</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>1400970</v>
       </c>
       <c r="C12">
         <v>713937</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>1007980000</v>
       </c>
       <c r="E12">
         <v>4962.34</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>1988</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>1466610</v>
       </c>
       <c r="C13">
         <v>717178</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>1088210000</v>
       </c>
       <c r="E13">
         <v>5137.38</v>
       </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>1989</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>1532530</v>
       </c>
       <c r="C14">
         <v>725995</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>1029070000</v>
       </c>
       <c r="E14">
         <v>2583.5300000000002</v>
       </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>1990</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>1591600</v>
       </c>
       <c r="C15">
         <v>750715</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>891503000</v>
       </c>
       <c r="E15">
         <v>7705.03</v>
       </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>1991</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>1641260</v>
       </c>
       <c r="C16">
         <v>788940</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>964597000</v>
       </c>
       <c r="E16">
         <v>17385.7</v>
       </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>1992</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>1674100</v>
       </c>
       <c r="C17">
         <v>827783</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>941008000</v>
       </c>
       <c r="E17">
         <v>21912.1</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>1993</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>1685900</v>
       </c>
       <c r="C18">
         <v>861501</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>719768000</v>
       </c>
       <c r="E18">
         <v>19074.900000000001</v>
       </c>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>1994</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>1689560</v>
       </c>
       <c r="C19">
         <v>894357</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>715897000</v>
       </c>
       <c r="E19">
         <v>22915.5</v>
       </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>1995</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>1682820</v>
       </c>
       <c r="C20">
         <v>919616</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>770326000</v>
       </c>
       <c r="E20">
         <v>18277.7</v>
       </c>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>1996</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>1674270</v>
       </c>
       <c r="C21">
         <v>941224</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>747329000</v>
       </c>
       <c r="E21">
         <v>22480.9</v>
       </c>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>1997</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>1663760</v>
       </c>
       <c r="C22">
         <v>952481</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>880412000</v>
       </c>
       <c r="E22">
         <v>16360.9</v>
       </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>1998</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>1673340</v>
       </c>
       <c r="C23">
         <v>962738</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>1108610000</v>
       </c>
       <c r="E23">
         <v>12956.4</v>
       </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>1999</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>1700300</v>
       </c>
       <c r="C24">
         <v>966030</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>1202270000</v>
       </c>
       <c r="E24">
         <v>16141.9</v>
       </c>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>2000</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>1752480</v>
       </c>
       <c r="C25">
         <v>957486</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>1555480000</v>
       </c>
       <c r="E25">
         <v>24206.7</v>
       </c>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>2001</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>1788430</v>
       </c>
       <c r="C26">
         <v>939426</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>1032550000</v>
       </c>
       <c r="E26">
         <v>19924.900000000001</v>
       </c>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>2002</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>1823800</v>
       </c>
       <c r="C27">
         <v>928501</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>957785000</v>
       </c>
       <c r="E27">
         <v>21212.6</v>
       </c>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>2003</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="1">
         <v>1847510</v>
       </c>
       <c r="C28">
         <v>926030</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>882391000</v>
       </c>
       <c r="E28">
         <v>30254.5</v>
       </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>2004</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>1856070</v>
       </c>
       <c r="C29">
         <v>932247</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>938885000</v>
       </c>
       <c r="E29">
         <v>15755.4</v>
       </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>2005</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="1">
         <v>1876680</v>
       </c>
       <c r="C30">
         <v>968042</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>985795000</v>
       </c>
       <c r="E30">
         <v>19988</v>
       </c>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>2006</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="1">
         <v>1883890</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>1009610</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>912955000</v>
       </c>
       <c r="E31">
         <v>27740</v>
       </c>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>2007</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="1">
         <v>1864780</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>1038270</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>662066000</v>
       </c>
       <c r="E32">
         <v>25509.599999999999</v>
       </c>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>2008</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>1836000</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>1052040</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>644075000</v>
       </c>
       <c r="E33">
         <v>29270</v>
       </c>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>2009</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>1784120</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>1049880</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>463970000</v>
       </c>
       <c r="E34">
         <v>24911.8</v>
       </c>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>2010</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="1">
         <v>1723620</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <v>1045960</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>451717000</v>
       </c>
       <c r="E35">
         <v>24495.200000000001</v>
       </c>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>2011</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="1">
         <v>1662600</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>1040760</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
         <v>600732000</v>
       </c>
       <c r="E36">
         <v>30965.9</v>
       </c>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>2012</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>1602010</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <v>1024360</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>744114000</v>
       </c>
       <c r="E37">
         <v>20620</v>
       </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>2013</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="1">
         <v>1560660</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <v>1004790</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>781273000</v>
       </c>
       <c r="E38">
         <v>21537.8</v>
       </c>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>2014</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="1">
         <v>1519560</v>
       </c>
       <c r="C39">
         <v>971913</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>639415000</v>
       </c>
       <c r="E39">
         <v>36311</v>
       </c>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>2015</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="1">
         <v>1462640</v>
       </c>
       <c r="C40">
         <v>916890</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>550236000</v>
       </c>
       <c r="E40">
         <v>19084.900000000001</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="I40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>2016</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>1428830</v>
       </c>
       <c r="C41">
         <v>874407</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <v>633468000</v>
       </c>
       <c r="E41">
         <v>19819.8</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="I41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>2017</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="1">
         <v>1399970</v>
       </c>
       <c r="C42">
         <v>837844</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="1">
         <v>684650000</v>
       </c>
       <c r="E42">
         <v>26902.400000000001</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="I42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>2018</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="1">
         <v>1384140</v>
       </c>
       <c r="C43">
         <v>807321</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
         <v>974684000</v>
       </c>
       <c r="E43">
         <v>18833</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="I43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>2019</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="1">
         <v>1365790</v>
       </c>
       <c r="C44">
         <v>792545</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="1">
         <v>496959000</v>
       </c>
       <c r="E44">
         <v>24584.7</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="I44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>2020</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>1346090</v>
       </c>
       <c r="C45">
         <v>774292</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
         <v>643247000</v>
       </c>
       <c r="E45">
         <v>21125</v>
       </c>
-      <c r="I45" s="3"/>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="I45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>2021</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="1">
         <v>1331100</v>
       </c>
       <c r="C46">
         <v>754860</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="1">
         <v>684898000</v>
       </c>
       <c r="E46">
         <v>9988.0300000000007</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="I46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>2022</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="1">
         <v>1330930</v>
       </c>
       <c r="C47">
         <v>746783</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="1">
         <v>713088000</v>
       </c>
       <c r="E47">
         <v>11630.1</v>
       </c>
-      <c r="I47" s="3"/>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="I47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>2023</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="1">
         <v>1316630</v>
       </c>
       <c r="C48">
         <v>744001</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="1">
         <v>436000000</v>
       </c>
       <c r="E48">
         <v>9028.42</v>
       </c>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I57" s="3"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3577,393 +3389,393 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36A4B6C-721B-47F2-AB88-DEE920160315}">
   <dimension ref="A1:DU67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BS1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BT1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BV1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BW1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BY1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CA1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CB1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CC1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CD1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CE1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CF1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CG1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CH1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CI1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CK1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CL1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CM1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CN1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CO1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CP1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CR1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CS1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CT1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CU1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CV1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="CW1" s="4" t="s">
+      <c r="CW1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="CX1" s="4" t="s">
+      <c r="CX1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="CY1" s="4" t="s">
+      <c r="CY1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="CZ1" s="4" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DA1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DB1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DC1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DD1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DE1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DF1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DG1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DH1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DI1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DJ1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DK1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DL1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="DM1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="DN1" s="4" t="s">
+      <c r="DN1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DO1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DP1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DQ1" s="4" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="DR1" s="4" t="s">
+      <c r="DR1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="DS1" s="4" t="s">
+      <c r="DS1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="DT1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="DU1" s="4" t="s">
+      <c r="DU1" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -4115,7 +3927,7 @@
         <v>6.0010800000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -4267,7 +4079,7 @@
         <v>4.4481499999999999E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -4419,7 +4231,7 @@
         <v>3.5188299999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -4571,7 +4383,7 @@
         <v>3.39489E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -4723,7 +4535,7 @@
         <v>3.4160800000000003E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -4875,7 +4687,7 @@
         <v>3.6658900000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -5027,7 +4839,7 @@
         <v>2.9765400000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -5179,7 +4991,7 @@
         <v>2.5521499999999999E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -5331,7 +5143,7 @@
         <v>3.62085E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -5483,7 +5295,7 @@
         <v>4.5082599999999998E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -5635,7 +5447,7 @@
         <v>5.2109699999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -5787,7 +5599,7 @@
         <v>5.8251799999999997E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -5939,7 +5751,7 @@
         <v>5.9620599999999995E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -6091,7 +5903,7 @@
         <v>5.5494799999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -6243,7 +6055,7 @@
         <v>5.9321999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -6395,7 +6207,7 @@
         <v>7.3705199999999998E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -6420,7 +6232,7 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <v>1.72322E-6</v>
       </c>
       <c r="J18">
@@ -6498,13 +6310,13 @@
       <c r="AH18">
         <v>7.5350399999999998E-3</v>
       </c>
-      <c r="AI18" s="3">
+      <c r="AI18" s="1">
         <v>1.04787E-5</v>
       </c>
       <c r="AJ18">
         <v>3.5249399999999998E-3</v>
       </c>
-      <c r="AK18" s="3">
+      <c r="AK18" s="1">
         <v>5.3325300000000003E-3</v>
       </c>
       <c r="AL18">
@@ -6561,7 +6373,7 @@
       <c r="BC18">
         <v>1.0349999999999999E-4</v>
       </c>
-      <c r="BD18" s="3">
+      <c r="BD18" s="1">
         <v>8.2093499999999996E-6</v>
       </c>
       <c r="BE18">
@@ -6577,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -6602,7 +6414,7 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="1">
         <v>1.5460000000000001E-6</v>
       </c>
       <c r="J19">
@@ -6680,7 +6492,7 @@
       <c r="AH19">
         <v>6.8963000000000002E-3</v>
       </c>
-      <c r="AI19" s="3">
+      <c r="AI19" s="1">
         <v>9.4010599999999994E-6</v>
       </c>
       <c r="AJ19">
@@ -6740,10 +6552,10 @@
       <c r="BB19">
         <v>6.8863400000000003E-4</v>
       </c>
-      <c r="BC19" s="3">
+      <c r="BC19" s="1">
         <v>9.6239599999999999E-5</v>
       </c>
-      <c r="BD19" s="3">
+      <c r="BD19" s="1">
         <v>7.5702900000000003E-6</v>
       </c>
       <c r="BE19">
@@ -6759,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -6784,7 +6596,7 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1">
         <v>1.05417E-6</v>
       </c>
       <c r="J20">
@@ -6862,7 +6674,7 @@
       <c r="AH20">
         <v>5.0243199999999997E-3</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AI20" s="1">
         <v>6.4102900000000004E-6</v>
       </c>
       <c r="AJ20">
@@ -6922,10 +6734,10 @@
       <c r="BB20">
         <v>5.2739900000000001E-4</v>
       </c>
-      <c r="BC20" s="3">
+      <c r="BC20" s="1">
         <v>7.4511000000000005E-5</v>
       </c>
-      <c r="BD20" s="3">
+      <c r="BD20" s="1">
         <v>5.9904799999999999E-6</v>
       </c>
       <c r="BE20">
@@ -6941,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -6966,7 +6778,7 @@
       <c r="H21">
         <v>40</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="1">
         <v>2.1194300000000001E-7</v>
       </c>
       <c r="J21">
@@ -7044,7 +6856,7 @@
       <c r="AH21">
         <v>1.67133E-2</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AI21" s="1">
         <v>2.5525199999999998E-6</v>
       </c>
       <c r="AJ21">
@@ -7107,7 +6919,7 @@
       <c r="BC21">
         <v>2.4735000000000002E-4</v>
       </c>
-      <c r="BD21" s="3">
+      <c r="BD21" s="1">
         <v>1.9786600000000001E-5</v>
       </c>
       <c r="BE21">
@@ -7123,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -7148,7 +6960,7 @@
       <c r="H22">
         <v>40</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="1">
         <v>2.35185E-7</v>
       </c>
       <c r="J22">
@@ -7226,7 +7038,7 @@
       <c r="AH22">
         <v>1.6984699999999998E-2</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AI22" s="1">
         <v>2.8324300000000002E-6</v>
       </c>
       <c r="AJ22">
@@ -7289,7 +7101,7 @@
       <c r="BC22">
         <v>2.43897E-4</v>
       </c>
-      <c r="BD22" s="3">
+      <c r="BD22" s="1">
         <v>1.9400699999999999E-5</v>
       </c>
       <c r="BE22">
@@ -7305,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -7330,7 +7142,7 @@
       <c r="H23">
         <v>40</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <v>2.5535000000000002E-7</v>
       </c>
       <c r="J23">
@@ -7408,7 +7220,7 @@
       <c r="AH23">
         <v>1.7146999999999999E-2</v>
       </c>
-      <c r="AI23" s="3">
+      <c r="AI23" s="1">
         <v>3.0753E-6</v>
       </c>
       <c r="AJ23">
@@ -7471,7 +7283,7 @@
       <c r="BC23">
         <v>2.4261000000000001E-4</v>
       </c>
-      <c r="BD23" s="3">
+      <c r="BD23" s="1">
         <v>1.9295000000000001E-5</v>
       </c>
       <c r="BE23">
@@ -7487,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -7512,7 +7324,7 @@
       <c r="H24">
         <v>40</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="1">
         <v>2.3667499999999999E-7</v>
       </c>
       <c r="J24">
@@ -7590,7 +7402,7 @@
       <c r="AH24">
         <v>1.72134E-2</v>
       </c>
-      <c r="AI24" s="3">
+      <c r="AI24" s="1">
         <v>2.8503800000000001E-6</v>
       </c>
       <c r="AJ24">
@@ -7653,7 +7465,7 @@
       <c r="BC24">
         <v>2.42914E-4</v>
       </c>
-      <c r="BD24" s="3">
+      <c r="BD24" s="1">
         <v>1.9388399999999999E-5</v>
       </c>
       <c r="BE24">
@@ -7669,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -7694,7 +7506,7 @@
       <c r="H25">
         <v>40</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="1">
         <v>2.04214E-7</v>
       </c>
       <c r="J25">
@@ -7772,7 +7584,7 @@
       <c r="AH25">
         <v>1.71685E-2</v>
       </c>
-      <c r="AI25" s="3">
+      <c r="AI25" s="1">
         <v>2.45944E-6</v>
       </c>
       <c r="AJ25">
@@ -7835,7 +7647,7 @@
       <c r="BC25">
         <v>2.4339399999999999E-4</v>
       </c>
-      <c r="BD25" s="3">
+      <c r="BD25" s="1">
         <v>1.9533599999999999E-5</v>
       </c>
       <c r="BE25">
@@ -7851,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -7876,7 +7688,7 @@
       <c r="H26">
         <v>40</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="1">
         <v>1.97631E-7</v>
       </c>
       <c r="J26">
@@ -7954,7 +7766,7 @@
       <c r="AH26">
         <v>1.6996799999999999E-2</v>
       </c>
-      <c r="AI26" s="3">
+      <c r="AI26" s="1">
         <v>2.3801599999999998E-6</v>
       </c>
       <c r="AJ26">
@@ -8017,7 +7829,7 @@
       <c r="BC26">
         <v>2.4268299999999999E-4</v>
       </c>
-      <c r="BD26" s="3">
+      <c r="BD26" s="1">
         <v>1.95696E-5</v>
       </c>
       <c r="BE26">
@@ -8033,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -8058,7 +7870,7 @@
       <c r="H27">
         <v>40</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="1">
         <v>2.22302E-7</v>
       </c>
       <c r="J27">
@@ -8136,7 +7948,7 @@
       <c r="AH27">
         <v>1.6720800000000001E-2</v>
       </c>
-      <c r="AI27" s="3">
+      <c r="AI27" s="1">
         <v>2.6772899999999999E-6</v>
       </c>
       <c r="AJ27">
@@ -8199,7 +8011,7 @@
       <c r="BC27">
         <v>2.40306E-4</v>
       </c>
-      <c r="BD27" s="3">
+      <c r="BD27" s="1">
         <v>1.9426500000000001E-5</v>
       </c>
       <c r="BE27">
@@ -8215,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -8240,7 +8052,7 @@
       <c r="H28">
         <v>40</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="1">
         <v>3.0050900000000001E-7</v>
       </c>
       <c r="J28">
@@ -8318,7 +8130,7 @@
       <c r="AH28">
         <v>1.63424E-2</v>
       </c>
-      <c r="AI28" s="3">
+      <c r="AI28" s="1">
         <v>3.6191600000000002E-6</v>
       </c>
       <c r="AJ28">
@@ -8381,7 +8193,7 @@
       <c r="BC28">
         <v>2.3605699999999999E-4</v>
       </c>
-      <c r="BD28" s="3">
+      <c r="BD28" s="1">
         <v>1.9051299999999998E-5</v>
       </c>
       <c r="BE28">
@@ -8397,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -8422,7 +8234,7 @@
       <c r="H29">
         <v>40</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="1">
         <v>4.3165500000000001E-7</v>
       </c>
       <c r="J29">
@@ -8500,7 +8312,7 @@
       <c r="AH29">
         <v>1.5897600000000001E-2</v>
       </c>
-      <c r="AI29" s="3">
+      <c r="AI29" s="1">
         <v>5.1986100000000004E-6</v>
       </c>
       <c r="AJ29">
@@ -8563,7 +8375,7 @@
       <c r="BC29">
         <v>2.3146700000000001E-4</v>
       </c>
-      <c r="BD29" s="3">
+      <c r="BD29" s="1">
         <v>1.85609E-5</v>
       </c>
       <c r="BE29">
@@ -8579,7 +8391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -8604,7 +8416,7 @@
       <c r="H30">
         <v>40</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="1">
         <v>4.1080299999999998E-7</v>
       </c>
       <c r="J30">
@@ -8682,7 +8494,7 @@
       <c r="AH30">
         <v>1.5436E-2</v>
       </c>
-      <c r="AI30" s="3">
+      <c r="AI30" s="1">
         <v>4.9474899999999998E-6</v>
       </c>
       <c r="AJ30">
@@ -8745,7 +8557,7 @@
       <c r="BC30">
         <v>2.2838399999999999E-4</v>
       </c>
-      <c r="BD30" s="3">
+      <c r="BD30" s="1">
         <v>1.81588E-5</v>
       </c>
       <c r="BE30">
@@ -8761,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -8786,7 +8598,7 @@
       <c r="H31">
         <v>40</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="1">
         <v>3.83726E-7</v>
       </c>
       <c r="J31">
@@ -8864,7 +8676,7 @@
       <c r="AH31">
         <v>1.49242E-2</v>
       </c>
-      <c r="AI31" s="3">
+      <c r="AI31" s="1">
         <v>4.6213799999999998E-6</v>
       </c>
       <c r="AJ31">
@@ -8927,7 +8739,7 @@
       <c r="BC31">
         <v>2.26445E-4</v>
       </c>
-      <c r="BD31" s="3">
+      <c r="BD31" s="1">
         <v>1.7957499999999999E-5</v>
       </c>
       <c r="BE31">
@@ -8943,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -8968,7 +8780,7 @@
       <c r="H32">
         <v>40</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="1">
         <v>3.7785800000000002E-7</v>
       </c>
       <c r="J32">
@@ -9046,7 +8858,7 @@
       <c r="AH32">
         <v>1.43021E-2</v>
       </c>
-      <c r="AI32" s="3">
+      <c r="AI32" s="1">
         <v>4.55072E-6</v>
       </c>
       <c r="AJ32">
@@ -9109,7 +8921,7 @@
       <c r="BC32">
         <v>2.22625E-4</v>
       </c>
-      <c r="BD32" s="3">
+      <c r="BD32" s="1">
         <v>1.78437E-5</v>
       </c>
       <c r="BE32">
@@ -9125,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -9150,7 +8962,7 @@
       <c r="H33">
         <v>14</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="1">
         <v>3.3702799999999999E-7</v>
       </c>
       <c r="J33">
@@ -9228,7 +9040,7 @@
       <c r="AH33">
         <v>1.35304E-2</v>
       </c>
-      <c r="AI33" s="3">
+      <c r="AI33" s="1">
         <v>4.0589799999999999E-6</v>
       </c>
       <c r="AJ33">
@@ -9291,7 +9103,7 @@
       <c r="BC33">
         <v>2.14076E-4</v>
       </c>
-      <c r="BD33" s="3">
+      <c r="BD33" s="1">
         <v>1.7402999999999999E-5</v>
       </c>
       <c r="BE33">
@@ -9307,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -9332,7 +9144,7 @@
       <c r="H34">
         <v>184</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <v>2.70105E-7</v>
       </c>
       <c r="J34">
@@ -9410,7 +9222,7 @@
       <c r="AH34">
         <v>1.2669700000000001E-2</v>
       </c>
-      <c r="AI34" s="3">
+      <c r="AI34" s="1">
         <v>3.2529900000000002E-6</v>
       </c>
       <c r="AJ34">
@@ -9473,7 +9285,7 @@
       <c r="BC34">
         <v>2.01082E-4</v>
       </c>
-      <c r="BD34" s="3">
+      <c r="BD34" s="1">
         <v>1.6437900000000001E-5</v>
       </c>
       <c r="BE34">
@@ -9489,7 +9301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -9514,7 +9326,7 @@
       <c r="H35">
         <v>4</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="1">
         <v>2.6769399999999999E-7</v>
       </c>
       <c r="J35">
@@ -9592,7 +9404,7 @@
       <c r="AH35">
         <v>1.17514E-2</v>
       </c>
-      <c r="AI35" s="3">
+      <c r="AI35" s="1">
         <v>3.2239499999999999E-6</v>
       </c>
       <c r="AJ35">
@@ -9655,7 +9467,7 @@
       <c r="BC35">
         <v>1.86584E-4</v>
       </c>
-      <c r="BD35" s="3">
+      <c r="BD35" s="1">
         <v>1.5061200000000001E-5</v>
       </c>
       <c r="BE35">
@@ -9671,7 +9483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -9696,7 +9508,7 @@
       <c r="H36">
         <v>24</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="1">
         <v>2.4282600000000001E-7</v>
       </c>
       <c r="J36">
@@ -9774,7 +9586,7 @@
       <c r="AH36">
         <v>1.0885000000000001E-2</v>
       </c>
-      <c r="AI36" s="3">
+      <c r="AI36" s="1">
         <v>2.9244599999999999E-6</v>
       </c>
       <c r="AJ36">
@@ -9837,7 +9649,7 @@
       <c r="BC36">
         <v>1.7615900000000001E-4</v>
       </c>
-      <c r="BD36" s="3">
+      <c r="BD36" s="1">
         <v>1.37635E-5</v>
       </c>
       <c r="BE36">
@@ -9853,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -9878,7 +9690,7 @@
       <c r="H37">
         <v>20</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="1">
         <v>1.85605E-7</v>
       </c>
       <c r="J37">
@@ -9956,7 +9768,7 @@
       <c r="AH37">
         <v>1.0205000000000001E-2</v>
       </c>
-      <c r="AI37" s="3">
+      <c r="AI37" s="1">
         <v>2.2353200000000001E-6</v>
       </c>
       <c r="AJ37">
@@ -10019,7 +9831,7 @@
       <c r="BC37">
         <v>1.74749E-4</v>
       </c>
-      <c r="BD37" s="3">
+      <c r="BD37" s="1">
         <v>1.32694E-5</v>
       </c>
       <c r="BE37">
@@ -10035,7 +9847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -10060,7 +9872,7 @@
       <c r="H38">
         <v>30</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="1">
         <v>1.78041E-7</v>
       </c>
       <c r="J38">
@@ -10138,7 +9950,7 @@
       <c r="AH38">
         <v>9.7590899999999998E-3</v>
       </c>
-      <c r="AI38" s="3">
+      <c r="AI38" s="1">
         <v>2.1442300000000001E-6</v>
       </c>
       <c r="AJ38">
@@ -10201,7 +10013,7 @@
       <c r="BC38">
         <v>1.8368400000000001E-4</v>
       </c>
-      <c r="BD38" s="3">
+      <c r="BD38" s="1">
         <v>1.41498E-5</v>
       </c>
       <c r="BE38">
@@ -10217,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -10242,7 +10054,7 @@
       <c r="H39">
         <v>28</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="1">
         <v>1.8925500000000001E-7</v>
       </c>
       <c r="J39">
@@ -10320,7 +10132,7 @@
       <c r="AH39">
         <v>9.4969700000000004E-3</v>
       </c>
-      <c r="AI39" s="3">
+      <c r="AI39" s="1">
         <v>2.2792799999999998E-6</v>
       </c>
       <c r="AJ39">
@@ -10383,7 +10195,7 @@
       <c r="BC39">
         <v>1.98538E-4</v>
       </c>
-      <c r="BD39" s="3">
+      <c r="BD39" s="1">
         <v>1.5665899999999999E-5</v>
       </c>
       <c r="BE39">
@@ -10399,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -10424,7 +10236,7 @@
       <c r="H40">
         <v>10</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="1">
         <v>1.8444500000000001E-7</v>
       </c>
       <c r="J40">
@@ -10502,7 +10314,7 @@
       <c r="AH40">
         <v>9.4264599999999994E-3</v>
       </c>
-      <c r="AI40" s="3">
+      <c r="AI40" s="1">
         <v>2.2213499999999999E-6</v>
       </c>
       <c r="AJ40">
@@ -10565,7 +10377,7 @@
       <c r="BC40">
         <v>2.1664699999999999E-4</v>
       </c>
-      <c r="BD40" s="3">
+      <c r="BD40" s="1">
         <v>1.7566499999999999E-5</v>
       </c>
       <c r="BE40">
@@ -10581,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -10606,7 +10418,7 @@
       <c r="H41">
         <v>251</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="1">
         <v>2.2754100000000001E-7</v>
       </c>
       <c r="J41">
@@ -10684,7 +10496,7 @@
       <c r="AH41">
         <v>9.5284600000000007E-3</v>
       </c>
-      <c r="AI41" s="3">
+      <c r="AI41" s="1">
         <v>2.7403799999999999E-6</v>
       </c>
       <c r="AJ41">
@@ -10747,7 +10559,7 @@
       <c r="BC41">
         <v>2.3459800000000001E-4</v>
       </c>
-      <c r="BD41" s="3">
+      <c r="BD41" s="1">
         <v>1.9303000000000001E-5</v>
       </c>
       <c r="BE41">
@@ -10763,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -10788,7 +10600,7 @@
       <c r="H42">
         <v>400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="1">
         <v>2.9899200000000001E-7</v>
       </c>
       <c r="J42">
@@ -10866,7 +10678,7 @@
       <c r="AH42">
         <v>9.8050299999999993E-3</v>
       </c>
-      <c r="AI42" s="3">
+      <c r="AI42" s="1">
         <v>3.6008899999999998E-6</v>
       </c>
       <c r="AJ42">
@@ -10929,7 +10741,7 @@
       <c r="BC42">
         <v>2.4952900000000002E-4</v>
       </c>
-      <c r="BD42" s="3">
+      <c r="BD42" s="1">
         <v>2.0719800000000001E-5</v>
       </c>
       <c r="BE42">
@@ -10945,7 +10757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -10970,7 +10782,7 @@
       <c r="H43">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="1">
         <v>3.28168E-7</v>
       </c>
       <c r="J43">
@@ -11048,7 +10860,7 @@
       <c r="AH43">
         <v>1.01943E-2</v>
       </c>
-      <c r="AI43" s="3">
+      <c r="AI43" s="1">
         <v>3.9522699999999999E-6</v>
       </c>
       <c r="AJ43">
@@ -11111,7 +10923,7 @@
       <c r="BC43">
         <v>2.5926399999999999E-4</v>
       </c>
-      <c r="BD43" s="3">
+      <c r="BD43" s="1">
         <v>2.15259E-5</v>
       </c>
       <c r="BE43">
@@ -11127,7 +10939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -11152,7 +10964,7 @@
       <c r="H44">
         <v>400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="1">
         <v>4.2076999999999998E-7</v>
       </c>
       <c r="J44">
@@ -11230,7 +11042,7 @@
       <c r="AH44">
         <v>1.04957E-2</v>
       </c>
-      <c r="AI44" s="3">
+      <c r="AI44" s="1">
         <v>5.0675199999999999E-6</v>
       </c>
       <c r="AJ44">
@@ -11293,7 +11105,7 @@
       <c r="BC44">
         <v>2.6240399999999999E-4</v>
       </c>
-      <c r="BD44" s="3">
+      <c r="BD44" s="1">
         <v>2.1754900000000001E-5</v>
       </c>
       <c r="BE44">
@@ -11309,7 +11121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -11334,7 +11146,7 @@
       <c r="H45">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="1">
         <v>2.7582899999999997E-7</v>
       </c>
       <c r="J45">
@@ -11412,7 +11224,7 @@
       <c r="AH45">
         <v>1.0655899999999999E-2</v>
       </c>
-      <c r="AI45" s="3">
+      <c r="AI45" s="1">
         <v>3.3219299999999999E-6</v>
       </c>
       <c r="AJ45">
@@ -11475,7 +11287,7 @@
       <c r="BC45">
         <v>2.5741199999999999E-4</v>
       </c>
-      <c r="BD45" s="3">
+      <c r="BD45" s="1">
         <v>2.1271400000000001E-5</v>
       </c>
       <c r="BE45">
@@ -11491,7 +11303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -11516,7 +11328,7 @@
       <c r="H46">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="1">
         <v>2.4380699999999998E-7</v>
       </c>
       <c r="J46">
@@ -11594,7 +11406,7 @@
       <c r="AH46">
         <v>1.07143E-2</v>
       </c>
-      <c r="AI46" s="3">
+      <c r="AI46" s="1">
         <v>2.93628E-6</v>
       </c>
       <c r="AJ46">
@@ -11657,7 +11469,7 @@
       <c r="BC46">
         <v>2.43935E-4</v>
       </c>
-      <c r="BD46" s="3">
+      <c r="BD46" s="1">
         <v>2.0026799999999999E-5</v>
       </c>
       <c r="BE46">
@@ -11673,7 +11485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -11698,7 +11510,7 @@
       <c r="H47">
         <v>400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="1">
         <v>2.15136E-7</v>
       </c>
       <c r="J47">
@@ -11776,7 +11588,7 @@
       <c r="AH47">
         <v>1.07174E-2</v>
       </c>
-      <c r="AI47" s="3">
+      <c r="AI47" s="1">
         <v>2.5909800000000001E-6</v>
       </c>
       <c r="AJ47">
@@ -11839,7 +11651,7 @@
       <c r="BC47">
         <v>2.2539500000000001E-4</v>
       </c>
-      <c r="BD47" s="3">
+      <c r="BD47" s="1">
         <v>1.8321999999999998E-5</v>
       </c>
       <c r="BE47">
@@ -11855,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -11880,7 +11692,7 @@
       <c r="H48">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="1">
         <v>2.1661000000000001E-7</v>
       </c>
       <c r="J48">
@@ -11958,7 +11770,7 @@
       <c r="AH48">
         <v>1.07688E-2</v>
       </c>
-      <c r="AI48" s="3">
+      <c r="AI48" s="1">
         <v>2.6087300000000001E-6</v>
       </c>
       <c r="AJ48">
@@ -12021,7 +11833,7 @@
       <c r="BC48">
         <v>2.06135E-4</v>
       </c>
-      <c r="BD48" s="3">
+      <c r="BD48" s="1">
         <v>1.6485099999999999E-5</v>
       </c>
       <c r="BE48">
@@ -12037,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -12062,7 +11874,7 @@
       <c r="H49">
         <v>400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="1">
         <v>2.0972700000000001E-7</v>
       </c>
       <c r="J49">
@@ -12140,7 +11952,7 @@
       <c r="AH49">
         <v>1.1063999999999999E-2</v>
       </c>
-      <c r="AI49" s="3">
+      <c r="AI49" s="1">
         <v>2.52583E-6</v>
       </c>
       <c r="AJ49">
@@ -12203,7 +12015,7 @@
       <c r="BC49">
         <v>1.9266300000000001E-4</v>
       </c>
-      <c r="BD49" s="3">
+      <c r="BD49" s="1">
         <v>1.50841E-5</v>
       </c>
       <c r="BE49">
@@ -12219,7 +12031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -12244,7 +12056,7 @@
       <c r="H50">
         <v>400</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="1">
         <v>1.8993400000000001E-7</v>
       </c>
       <c r="J50">
@@ -12322,7 +12134,7 @@
       <c r="AH50">
         <v>1.12008E-2</v>
       </c>
-      <c r="AI50" s="3">
+      <c r="AI50" s="1">
         <v>2.28745E-6</v>
       </c>
       <c r="AJ50">
@@ -12385,7 +12197,7 @@
       <c r="BC50">
         <v>1.8811899999999999E-4</v>
       </c>
-      <c r="BD50" s="3">
+      <c r="BD50" s="1">
         <v>1.4488099999999999E-5</v>
       </c>
       <c r="BE50">
@@ -12401,7 +12213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -12426,7 +12238,7 @@
       <c r="H51">
         <v>400</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="1">
         <v>1.37867E-7</v>
       </c>
       <c r="J51">
@@ -12504,7 +12316,7 @@
       <c r="AH51">
         <v>1.13232E-2</v>
       </c>
-      <c r="AI51" s="3">
+      <c r="AI51" s="1">
         <v>1.6604E-6</v>
       </c>
       <c r="AJ51">
@@ -12567,7 +12379,7 @@
       <c r="BC51">
         <v>1.9508399999999999E-4</v>
       </c>
-      <c r="BD51" s="3">
+      <c r="BD51" s="1">
         <v>1.4912800000000001E-5</v>
       </c>
       <c r="BE51">
@@ -12583,7 +12395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -12608,7 +12420,7 @@
       <c r="H52">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="1">
         <v>1.33337E-7</v>
       </c>
       <c r="J52">
@@ -12686,7 +12498,7 @@
       <c r="AH52">
         <v>1.15861E-2</v>
       </c>
-      <c r="AI52" s="3">
+      <c r="AI52" s="1">
         <v>1.60584E-6</v>
       </c>
       <c r="AJ52">
@@ -12749,7 +12561,7 @@
       <c r="BC52">
         <v>2.11843E-4</v>
       </c>
-      <c r="BD52" s="3">
+      <c r="BD52" s="1">
         <v>1.6313499999999999E-5</v>
       </c>
       <c r="BE52">
@@ -12765,7 +12577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -12790,10 +12602,10 @@
       <c r="H53">
         <v>400</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="1">
         <v>1.0281000000000001E-7</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="1">
         <v>9.2995600000000001E-5</v>
       </c>
       <c r="K53">
@@ -12868,7 +12680,7 @@
       <c r="AH53">
         <v>1.1905000000000001E-2</v>
       </c>
-      <c r="AI53" s="3">
+      <c r="AI53" s="1">
         <v>1.2381799999999999E-6</v>
       </c>
       <c r="AJ53">
@@ -12931,7 +12743,7 @@
       <c r="BC53">
         <v>2.3493900000000001E-4</v>
       </c>
-      <c r="BD53" s="3">
+      <c r="BD53" s="1">
         <v>1.90785E-5</v>
       </c>
       <c r="BE53">
@@ -12947,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -12972,10 +12784,10 @@
       <c r="H54">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="1">
         <v>1.04545E-7</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="1">
         <v>9.1216499999999996E-5</v>
       </c>
       <c r="K54">
@@ -13050,7 +12862,7 @@
       <c r="AH54">
         <v>1.22071E-2</v>
       </c>
-      <c r="AI54" s="3">
+      <c r="AI54" s="1">
         <v>1.25908E-6</v>
       </c>
       <c r="AJ54">
@@ -13113,7 +12925,7 @@
       <c r="BC54">
         <v>2.55966E-4</v>
       </c>
-      <c r="BD54" s="3">
+      <c r="BD54" s="1">
         <v>2.1214999999999999E-5</v>
       </c>
       <c r="BE54">
@@ -13129,7 +12941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -13154,7 +12966,7 @@
       <c r="H55">
         <v>400</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="1">
         <v>1.4000300000000001E-7</v>
       </c>
       <c r="J55">
@@ -13232,7 +13044,7 @@
       <c r="AH55">
         <v>1.26918E-2</v>
       </c>
-      <c r="AI55" s="3">
+      <c r="AI55" s="1">
         <v>1.68612E-6</v>
       </c>
       <c r="AJ55">
@@ -13295,7 +13107,7 @@
       <c r="BC55">
         <v>2.7207000000000002E-4</v>
       </c>
-      <c r="BD55" s="3">
+      <c r="BD55" s="1">
         <v>2.2980200000000001E-5</v>
       </c>
       <c r="BE55">
@@ -13311,7 +13123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -13336,7 +13148,7 @@
       <c r="H56">
         <v>400</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="1">
         <v>1.7649599999999999E-7</v>
       </c>
       <c r="J56">
@@ -13414,7 +13226,7 @@
       <c r="AH56">
         <v>1.3279300000000001E-2</v>
       </c>
-      <c r="AI56" s="3">
+      <c r="AI56" s="1">
         <v>2.1256200000000002E-6</v>
       </c>
       <c r="AJ56">
@@ -13477,7 +13289,7 @@
       <c r="BC56">
         <v>2.8353299999999998E-4</v>
       </c>
-      <c r="BD56" s="3">
+      <c r="BD56" s="1">
         <v>2.3525099999999999E-5</v>
       </c>
       <c r="BE56">
@@ -13493,7 +13305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -13518,7 +13330,7 @@
       <c r="H57">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="1">
         <v>1.8918100000000001E-7</v>
       </c>
       <c r="J57">
@@ -13596,7 +13408,7 @@
       <c r="AH57">
         <v>1.3932399999999999E-2</v>
       </c>
-      <c r="AI57" s="3">
+      <c r="AI57" s="1">
         <v>2.2783899999999998E-6</v>
       </c>
       <c r="AJ57">
@@ -13659,7 +13471,7 @@
       <c r="BC57">
         <v>2.9292400000000002E-4</v>
       </c>
-      <c r="BD57" s="3">
+      <c r="BD57" s="1">
         <v>2.40196E-5</v>
       </c>
       <c r="BE57">
@@ -13675,7 +13487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -13700,7 +13512,7 @@
       <c r="H58">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="1">
         <v>1.6493000000000001E-7</v>
       </c>
       <c r="J58">
@@ -13778,7 +13590,7 @@
       <c r="AH58">
         <v>1.4878499999999999E-2</v>
       </c>
-      <c r="AI58" s="3">
+      <c r="AI58" s="1">
         <v>1.9863299999999999E-6</v>
       </c>
       <c r="AJ58">
@@ -13841,7 +13653,7 @@
       <c r="BC58">
         <v>3.00718E-4</v>
       </c>
-      <c r="BD58" s="3">
+      <c r="BD58" s="1">
         <v>2.45746E-5</v>
       </c>
       <c r="BE58">
@@ -13857,7 +13669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -13882,7 +13694,7 @@
       <c r="H59">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="1">
         <v>1.5810099999999999E-7</v>
       </c>
       <c r="J59">
@@ -13960,7 +13772,7 @@
       <c r="AH59">
         <v>1.6034199999999998E-2</v>
       </c>
-      <c r="AI59" s="3">
+      <c r="AI59" s="1">
         <v>1.90408E-6</v>
       </c>
       <c r="AJ59">
@@ -14023,7 +13835,7 @@
       <c r="BC59">
         <v>3.0422400000000002E-4</v>
       </c>
-      <c r="BD59" s="3">
+      <c r="BD59" s="1">
         <v>2.4924300000000001E-5</v>
       </c>
       <c r="BE59">
@@ -14039,7 +13851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -14064,7 +13876,7 @@
       <c r="H60">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="1">
         <v>1.9150599999999999E-7</v>
       </c>
       <c r="J60">
@@ -14142,7 +13954,7 @@
       <c r="AH60">
         <v>1.71831E-2</v>
       </c>
-      <c r="AI60" s="3">
+      <c r="AI60" s="1">
         <v>2.3064000000000001E-6</v>
       </c>
       <c r="AJ60">
@@ -14205,7 +14017,7 @@
       <c r="BC60">
         <v>3.00704E-4</v>
       </c>
-      <c r="BD60" s="3">
+      <c r="BD60" s="1">
         <v>2.4561100000000001E-5</v>
       </c>
       <c r="BE60">
@@ -14221,7 +14033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -14246,7 +14058,7 @@
       <c r="H61">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="1">
         <v>2.18003E-7</v>
       </c>
       <c r="J61">
@@ -14324,7 +14136,7 @@
       <c r="AH61">
         <v>1.8361300000000001E-2</v>
       </c>
-      <c r="AI61" s="3">
+      <c r="AI61" s="1">
         <v>2.62551E-6</v>
       </c>
       <c r="AJ61">
@@ -14387,7 +14199,7 @@
       <c r="BC61">
         <v>2.8885800000000002E-4</v>
       </c>
-      <c r="BD61" s="3">
+      <c r="BD61" s="1">
         <v>2.36011E-5</v>
       </c>
       <c r="BE61">
@@ -14403,7 +14215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -14428,7 +14240,7 @@
       <c r="H62">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="1">
         <v>3.0625799999999999E-7</v>
       </c>
       <c r="J62">
@@ -14506,7 +14318,7 @@
       <c r="AH62">
         <v>1.9465300000000001E-2</v>
       </c>
-      <c r="AI62" s="3">
+      <c r="AI62" s="1">
         <v>3.6883899999999998E-6</v>
       </c>
       <c r="AJ62">
@@ -14569,7 +14381,7 @@
       <c r="BC62">
         <v>2.6907800000000001E-4</v>
       </c>
-      <c r="BD62" s="3">
+      <c r="BD62" s="1">
         <v>2.1652099999999999E-5</v>
       </c>
       <c r="BE62">
@@ -14585,7 +14397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -14610,7 +14422,7 @@
       <c r="H63">
         <v>400</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="1">
         <v>2.0123499999999999E-7</v>
       </c>
       <c r="J63">
@@ -14688,7 +14500,7 @@
       <c r="AH63">
         <v>2.0293200000000001E-2</v>
       </c>
-      <c r="AI63" s="3">
+      <c r="AI63" s="1">
         <v>2.4235600000000001E-6</v>
       </c>
       <c r="AJ63">
@@ -14751,7 +14563,7 @@
       <c r="BC63">
         <v>2.4938199999999998E-4</v>
       </c>
-      <c r="BD63" s="3">
+      <c r="BD63" s="1">
         <v>1.9673700000000001E-5</v>
       </c>
       <c r="BE63">
@@ -14767,7 +14579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -14792,7 +14604,7 @@
       <c r="H64">
         <v>400</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="1">
         <v>2.4296099999999997E-7</v>
       </c>
       <c r="J64">
@@ -14870,7 +14682,7 @@
       <c r="AH64">
         <v>2.1088699999999998E-2</v>
       </c>
-      <c r="AI64" s="3">
+      <c r="AI64" s="1">
         <v>2.9260800000000001E-6</v>
       </c>
       <c r="AJ64">
@@ -14933,7 +14745,7 @@
       <c r="BC64">
         <v>2.34565E-4</v>
       </c>
-      <c r="BD64" s="3">
+      <c r="BD64" s="1">
         <v>1.8043400000000001E-5</v>
       </c>
       <c r="BE64">
@@ -14949,7 +14761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -14974,7 +14786,7 @@
       <c r="H65">
         <v>400</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="1">
         <v>2.60401E-7</v>
       </c>
       <c r="J65">
@@ -15052,7 +14864,7 @@
       <c r="AH65">
         <v>2.06345E-2</v>
       </c>
-      <c r="AI65" s="3">
+      <c r="AI65" s="1">
         <v>3.1361200000000001E-6</v>
       </c>
       <c r="AJ65">
@@ -15115,7 +14927,7 @@
       <c r="BC65">
         <v>2.26145E-4</v>
       </c>
-      <c r="BD65" s="3">
+      <c r="BD65" s="1">
         <v>1.7310099999999999E-5</v>
       </c>
       <c r="BE65">
@@ -15131,7 +14943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -15156,7 +14968,7 @@
       <c r="H66">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="1">
         <v>2.5914700000000001E-7</v>
       </c>
       <c r="J66">
@@ -15234,7 +15046,7 @@
       <c r="AH66">
         <v>1.99522E-2</v>
       </c>
-      <c r="AI66" s="3">
+      <c r="AI66" s="1">
         <v>3.12102E-6</v>
       </c>
       <c r="AJ66">
@@ -15297,7 +15109,7 @@
       <c r="BC66">
         <v>2.2205900000000001E-4</v>
       </c>
-      <c r="BD66" s="3">
+      <c r="BD66" s="1">
         <v>1.7390299999999998E-5</v>
       </c>
       <c r="BE66">
@@ -15313,7 +15125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -15338,7 +15150,7 @@
       <c r="H67">
         <v>400</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="1">
         <v>1.5666700000000001E-7</v>
       </c>
       <c r="J67">
@@ -15416,7 +15228,7 @@
       <c r="AH67">
         <v>1.9081799999999999E-2</v>
       </c>
-      <c r="AI67" s="3">
+      <c r="AI67" s="1">
         <v>1.8868099999999999E-6</v>
       </c>
       <c r="AJ67">
@@ -15479,7 +15291,7 @@
       <c r="BC67">
         <v>2.1867100000000001E-4</v>
       </c>
-      <c r="BD67" s="3">
+      <c r="BD67" s="1">
         <v>1.7450499999999998E-5</v>
       </c>
       <c r="BE67">
@@ -15493,6 +15305,452 @@
       </c>
       <c r="BH67">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE142F5-64D0-4F45-B959-4454907C888C}">
+  <dimension ref="A1:AW48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1977</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1121760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1978</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1107720</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1979</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1097440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1980</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1093700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1981</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1095670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1982</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1099390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1983</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1101300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1984</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1096850</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1985</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1098900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1986</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1119820</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1987</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1169730</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1988</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1238350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1989</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1313700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1990</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1390770</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1991</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1455830</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1992</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1498300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1993</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1525370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1994</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1546720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1995</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1550130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1996</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1545130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1997</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1530300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1998</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1522600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1999</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1527720</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2000</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1550980</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2001</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1591680</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2002</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1658830</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2003</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1720270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2004</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1746760</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2005</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1768170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2006</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1772100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2007</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1761340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2008</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1744630</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2009</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1707540</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2010</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1656920</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2011</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1592240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2012</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1512220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2013</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1446620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2014</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1392350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2015</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1333880</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2016</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1295850</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2017</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1254780</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2018</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1210000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2019</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1184000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2020</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1166600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2021</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1155330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2022</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1154120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2023</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1154520</v>
       </c>
     </row>
   </sheetData>

--- a/data/2023_SAFE_biomass_estimate.xlsx
+++ b/data/2023_SAFE_biomass_estimate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/GOA-ATF-ESP/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grant.adams\GitHub\GOA ATF ESP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7554D8-F668-0A41-B6E9-C17BA8614412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD83396F-C320-4213-92FB-B117525C59CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="1455" windowWidth="24645" windowHeight="13380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023 SAFE" sheetId="1" r:id="rId1"/>
@@ -504,9 +504,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -544,7 +544,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -650,7 +650,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -792,7 +792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -806,9 +806,9 @@
       <selection sqref="A1:D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1977</v>
       </c>
@@ -837,7 +837,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1978</v>
       </c>
@@ -852,7 +852,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1979</v>
       </c>
@@ -867,7 +867,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1980</v>
       </c>
@@ -882,7 +882,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1981</v>
       </c>
@@ -897,7 +897,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1982</v>
       </c>
@@ -912,7 +912,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1983</v>
       </c>
@@ -927,7 +927,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1984</v>
       </c>
@@ -942,7 +942,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1985</v>
       </c>
@@ -999,7 +999,7 @@
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1986</v>
       </c>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1987</v>
       </c>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1988</v>
       </c>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1989</v>
       </c>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1990</v>
       </c>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1991</v>
       </c>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1994</v>
       </c>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1995</v>
       </c>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1996</v>
       </c>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1997</v>
       </c>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1999</v>
       </c>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2001</v>
       </c>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2003</v>
       </c>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2004</v>
       </c>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2006</v>
       </c>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2007</v>
       </c>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2008</v>
       </c>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2009</v>
       </c>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2010</v>
       </c>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2012</v>
       </c>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2013</v>
       </c>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2014</v>
       </c>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>714778000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -1580,9 +1580,9 @@
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1977</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>605490000</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1978</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>682866000</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1979</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>745158000</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1980</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>674859000</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1981</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>568368000</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1982</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>549460000</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1983</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>625398000</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1984</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>864931000</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1985</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>1222700000</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1986</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>1084360000</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1987</v>
       </c>
@@ -1759,7 +1759,7 @@
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1988</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>1091420000</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1989</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>1048170000</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1990</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>897513000</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1991</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>968279000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>925601000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>728317000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1994</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>725103000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1995</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>777965000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1996</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>747685000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1997</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>893119000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>1112310000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1999</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>1201560000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>1548970000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2001</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>1038470000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>957958000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2003</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>885082000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2004</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>943005000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2006</v>
       </c>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2007</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2008</v>
       </c>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2009</v>
       </c>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2010</v>
       </c>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2012</v>
       </c>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2013</v>
       </c>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2014</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>638727000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>553546000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>632694000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>684799000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>964654000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>492254000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>644098000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>706796000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>711843000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -2279,15 +2279,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8A6A43-C54E-472F-8AB4-99CF80E5A049}">
-  <dimension ref="A1:BB57"/>
+  <dimension ref="A1:BC57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2304,38 +2304,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1977</v>
       </c>
       <c r="B2" s="1">
-        <v>1147290</v>
-      </c>
-      <c r="C2">
-        <v>650019</v>
+        <v>1231640</v>
+      </c>
+      <c r="C2" s="1">
+        <v>732097</v>
       </c>
       <c r="D2" s="1">
-        <v>601013000</v>
-      </c>
-      <c r="E2">
-        <v>9447.0400000000009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.2">
+        <v>600780000</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9448.42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1978</v>
       </c>
       <c r="B3" s="1">
-        <v>1155120</v>
-      </c>
-      <c r="C3">
-        <v>655533</v>
+        <v>1221440</v>
+      </c>
+      <c r="C3" s="1">
+        <v>725700</v>
       </c>
       <c r="D3" s="1">
-        <v>694993000</v>
-      </c>
-      <c r="E3">
-        <v>8407.9599999999991</v>
+        <v>641720000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8407.77</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -2385,21 +2385,21 @@
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1979</v>
       </c>
       <c r="B4" s="1">
-        <v>1170000</v>
-      </c>
-      <c r="C4">
-        <v>655842</v>
+        <v>1219300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>717993</v>
       </c>
       <c r="D4" s="1">
-        <v>753141000</v>
-      </c>
-      <c r="E4">
-        <v>7577.53</v>
+        <v>706407000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7578.05</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2448,22 +2448,23 @@
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="BC4" s="1"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1980</v>
       </c>
       <c r="B5" s="1">
-        <v>1186340</v>
-      </c>
-      <c r="C5">
-        <v>653687</v>
+        <v>1219120</v>
+      </c>
+      <c r="C5" s="1">
+        <v>709296</v>
       </c>
       <c r="D5" s="1">
-        <v>682679000</v>
-      </c>
-      <c r="E5">
-        <v>7846.2</v>
+        <v>625524000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7846.81</v>
       </c>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -2474,21 +2475,21 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1981</v>
       </c>
       <c r="B6" s="1">
-        <v>1197100</v>
-      </c>
-      <c r="C6">
-        <v>652266</v>
+        <v>1215990</v>
+      </c>
+      <c r="C6" s="1">
+        <v>699284</v>
       </c>
       <c r="D6" s="1">
-        <v>568624000</v>
-      </c>
-      <c r="E6">
-        <v>7431.79</v>
+        <v>545618000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7432.36</v>
       </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
@@ -2499,21 +2500,21 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1982</v>
       </c>
       <c r="B7" s="1">
-        <v>1203780</v>
-      </c>
-      <c r="C7">
-        <v>654391</v>
+        <v>1210410</v>
+      </c>
+      <c r="C7" s="1">
+        <v>690597</v>
       </c>
       <c r="D7" s="1">
-        <v>551128000</v>
-      </c>
-      <c r="E7">
-        <v>4638.74</v>
+        <v>523016000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4638.8900000000003</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2563,21 +2564,21 @@
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1983</v>
       </c>
       <c r="B8" s="1">
-        <v>1213430</v>
-      </c>
-      <c r="C8">
-        <v>661960</v>
+        <v>1208670</v>
+      </c>
+      <c r="C8" s="1">
+        <v>687868</v>
       </c>
       <c r="D8" s="1">
-        <v>633613000</v>
-      </c>
-      <c r="E8">
-        <v>6330.08</v>
+        <v>590097000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6329.97</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2627,757 +2628,757 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1984</v>
       </c>
       <c r="B9" s="1">
-        <v>1232120</v>
-      </c>
-      <c r="C9">
-        <v>671601</v>
+        <v>1216860</v>
+      </c>
+      <c r="C9" s="1">
+        <v>688516</v>
       </c>
       <c r="D9" s="1">
-        <v>868275000</v>
-      </c>
-      <c r="E9">
-        <v>3456.04</v>
-      </c>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.2">
+        <v>815819000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3456.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1985</v>
       </c>
       <c r="B10" s="1">
-        <v>1279360</v>
-      </c>
-      <c r="C10">
-        <v>687284</v>
+        <v>1254820</v>
+      </c>
+      <c r="C10" s="1">
+        <v>694819</v>
       </c>
       <c r="D10" s="1">
-        <v>1220710000</v>
-      </c>
-      <c r="E10">
-        <v>1538.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.2">
+        <v>1193280000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1538.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1986</v>
       </c>
       <c r="B11" s="1">
-        <v>1337040</v>
-      </c>
-      <c r="C11">
-        <v>702867</v>
+        <v>1309800</v>
+      </c>
+      <c r="C11" s="1">
+        <v>702174</v>
       </c>
       <c r="D11" s="1">
-        <v>1065810000</v>
-      </c>
-      <c r="E11">
-        <v>1220.8800000000001</v>
+        <v>1128640000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1221.06</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1987</v>
       </c>
       <c r="B12" s="1">
-        <v>1400970</v>
-      </c>
-      <c r="C12">
-        <v>713937</v>
+        <v>1375350</v>
+      </c>
+      <c r="C12" s="1">
+        <v>705764</v>
       </c>
       <c r="D12" s="1">
-        <v>1007980000</v>
-      </c>
-      <c r="E12">
-        <v>4962.34</v>
+        <v>1085870000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4963.95</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1988</v>
       </c>
       <c r="B13" s="1">
-        <v>1466610</v>
-      </c>
-      <c r="C13">
-        <v>717178</v>
+        <v>1445950</v>
+      </c>
+      <c r="C13" s="1">
+        <v>703953</v>
       </c>
       <c r="D13" s="1">
-        <v>1088210000</v>
-      </c>
-      <c r="E13">
-        <v>5137.38</v>
+        <v>1130780000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5138.9799999999996</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1989</v>
       </c>
       <c r="B14" s="1">
-        <v>1532530</v>
-      </c>
-      <c r="C14">
-        <v>725995</v>
+        <v>1516480</v>
+      </c>
+      <c r="C14" s="1">
+        <v>707453</v>
       </c>
       <c r="D14" s="1">
-        <v>1029070000</v>
-      </c>
-      <c r="E14">
-        <v>2583.5300000000002</v>
+        <v>1043310000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2584.13</v>
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1990</v>
       </c>
       <c r="B15" s="1">
-        <v>1591600</v>
-      </c>
-      <c r="C15">
-        <v>750715</v>
+        <v>1581460</v>
+      </c>
+      <c r="C15" s="1">
+        <v>728370</v>
       </c>
       <c r="D15" s="1">
-        <v>891503000</v>
-      </c>
-      <c r="E15">
-        <v>7705.03</v>
+        <v>910950000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>7705.64</v>
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1991</v>
       </c>
       <c r="B16" s="1">
-        <v>1641260</v>
-      </c>
-      <c r="C16">
-        <v>788940</v>
+        <v>1634680</v>
+      </c>
+      <c r="C16" s="1">
+        <v>764725</v>
       </c>
       <c r="D16" s="1">
-        <v>964597000</v>
-      </c>
-      <c r="E16">
-        <v>17385.7</v>
+        <v>948296000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>17386.599999999999</v>
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1992</v>
       </c>
       <c r="B17" s="1">
-        <v>1674100</v>
-      </c>
-      <c r="C17">
-        <v>827783</v>
+        <v>1671040</v>
+      </c>
+      <c r="C17" s="1">
+        <v>806400</v>
       </c>
       <c r="D17" s="1">
-        <v>941008000</v>
-      </c>
-      <c r="E17">
-        <v>21912.1</v>
+        <v>944534000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>21914.6</v>
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1993</v>
       </c>
       <c r="B18" s="1">
-        <v>1685900</v>
-      </c>
-      <c r="C18">
-        <v>861501</v>
+        <v>1686870</v>
+      </c>
+      <c r="C18" s="1">
+        <v>846735</v>
       </c>
       <c r="D18" s="1">
-        <v>719768000</v>
-      </c>
-      <c r="E18">
-        <v>19074.900000000001</v>
+        <v>744599000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>19076.8</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1994</v>
       </c>
       <c r="B19" s="1">
-        <v>1689560</v>
-      </c>
-      <c r="C19">
-        <v>894357</v>
+        <v>1694130</v>
+      </c>
+      <c r="C19" s="1">
+        <v>886486</v>
       </c>
       <c r="D19" s="1">
-        <v>715897000</v>
-      </c>
-      <c r="E19">
-        <v>22915.5</v>
+        <v>734478000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>22917.200000000001</v>
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1995</v>
       </c>
       <c r="B20" s="1">
-        <v>1682820</v>
-      </c>
-      <c r="C20">
-        <v>919616</v>
+        <v>1690590</v>
+      </c>
+      <c r="C20" s="1">
+        <v>916642</v>
       </c>
       <c r="D20" s="1">
-        <v>770326000</v>
-      </c>
-      <c r="E20">
+        <v>789498000</v>
+      </c>
+      <c r="E20" s="1">
         <v>18277.7</v>
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1996</v>
       </c>
       <c r="B21" s="1">
-        <v>1674270</v>
-      </c>
-      <c r="C21">
-        <v>941224</v>
+        <v>1685320</v>
+      </c>
+      <c r="C21" s="1">
+        <v>941332</v>
       </c>
       <c r="D21" s="1">
-        <v>747329000</v>
-      </c>
-      <c r="E21">
-        <v>22480.9</v>
+        <v>768469000</v>
+      </c>
+      <c r="E21" s="1">
+        <v>22482.799999999999</v>
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1997</v>
       </c>
       <c r="B22" s="1">
-        <v>1663760</v>
-      </c>
-      <c r="C22">
-        <v>952481</v>
+        <v>1679800</v>
+      </c>
+      <c r="C22" s="1">
+        <v>954485</v>
       </c>
       <c r="D22" s="1">
-        <v>880412000</v>
-      </c>
-      <c r="E22">
-        <v>16360.9</v>
+        <v>929790000</v>
+      </c>
+      <c r="E22" s="1">
+        <v>16363.7</v>
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1998</v>
       </c>
       <c r="B23" s="1">
-        <v>1673340</v>
-      </c>
-      <c r="C23">
-        <v>962738</v>
+        <v>1696960</v>
+      </c>
+      <c r="C23" s="1">
+        <v>965842</v>
       </c>
       <c r="D23" s="1">
-        <v>1108610000</v>
-      </c>
-      <c r="E23">
-        <v>12956.4</v>
+        <v>1196990000</v>
+      </c>
+      <c r="E23" s="1">
+        <v>12960.1</v>
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1999</v>
       </c>
       <c r="B24" s="1">
-        <v>1700300</v>
-      </c>
-      <c r="C24">
-        <v>966030</v>
+        <v>1733510</v>
+      </c>
+      <c r="C24" s="1">
+        <v>970795</v>
       </c>
       <c r="D24" s="1">
-        <v>1202270000</v>
-      </c>
-      <c r="E24">
-        <v>16141.9</v>
+        <v>1293470000</v>
+      </c>
+      <c r="E24" s="1">
+        <v>16145.6</v>
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2000</v>
       </c>
       <c r="B25" s="1">
-        <v>1752480</v>
-      </c>
-      <c r="C25">
-        <v>957486</v>
+        <v>1797070</v>
+      </c>
+      <c r="C25" s="1">
+        <v>964397</v>
       </c>
       <c r="D25" s="1">
-        <v>1555480000</v>
-      </c>
-      <c r="E25">
-        <v>24206.7</v>
+        <v>1653270000</v>
+      </c>
+      <c r="E25" s="1">
+        <v>24214.1</v>
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2001</v>
       </c>
       <c r="B26" s="1">
-        <v>1788430</v>
-      </c>
-      <c r="C26">
-        <v>939426</v>
+        <v>1842760</v>
+      </c>
+      <c r="C26" s="1">
+        <v>948808</v>
       </c>
       <c r="D26" s="1">
-        <v>1032550000</v>
-      </c>
-      <c r="E26">
-        <v>19924.900000000001</v>
+        <v>1075310000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>19927.900000000001</v>
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
       <c r="B27" s="1">
-        <v>1823800</v>
-      </c>
-      <c r="C27">
-        <v>928501</v>
+        <v>1884900</v>
+      </c>
+      <c r="C27" s="1">
+        <v>940853</v>
       </c>
       <c r="D27" s="1">
-        <v>957785000</v>
-      </c>
-      <c r="E27">
-        <v>21212.6</v>
+        <v>968251000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>21214.6</v>
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2003</v>
       </c>
       <c r="B28" s="1">
-        <v>1847510</v>
-      </c>
-      <c r="C28">
-        <v>926030</v>
+        <v>1912460</v>
+      </c>
+      <c r="C28" s="1">
+        <v>942759</v>
       </c>
       <c r="D28" s="1">
-        <v>882391000</v>
-      </c>
-      <c r="E28">
-        <v>30254.5</v>
+        <v>885333000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>30255.5</v>
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2004</v>
       </c>
       <c r="B29" s="1">
-        <v>1856070</v>
-      </c>
-      <c r="C29">
-        <v>932247</v>
+        <v>1921090</v>
+      </c>
+      <c r="C29" s="1">
+        <v>955425</v>
       </c>
       <c r="D29" s="1">
-        <v>938885000</v>
-      </c>
-      <c r="E29">
-        <v>15755.4</v>
+        <v>916966000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>15757.8</v>
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2005</v>
       </c>
       <c r="B30" s="1">
-        <v>1876680</v>
-      </c>
-      <c r="C30">
-        <v>968042</v>
+        <v>1938350</v>
+      </c>
+      <c r="C30" s="1">
+        <v>999117</v>
       </c>
       <c r="D30" s="1">
-        <v>985795000</v>
-      </c>
-      <c r="E30">
-        <v>19988</v>
+        <v>950670000</v>
+      </c>
+      <c r="E30" s="1">
+        <v>19989.400000000001</v>
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2006</v>
       </c>
       <c r="B31" s="1">
-        <v>1883890</v>
+        <v>1939990</v>
       </c>
       <c r="C31" s="1">
-        <v>1009610</v>
+        <v>1048390</v>
       </c>
       <c r="D31" s="1">
-        <v>912955000</v>
-      </c>
-      <c r="E31">
-        <v>27740</v>
+        <v>880351000</v>
+      </c>
+      <c r="E31" s="1">
+        <v>27741.200000000001</v>
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2007</v>
       </c>
       <c r="B32" s="1">
-        <v>1864780</v>
+        <v>1914480</v>
       </c>
       <c r="C32" s="1">
-        <v>1038270</v>
+        <v>1082140</v>
       </c>
       <c r="D32" s="1">
-        <v>662066000</v>
-      </c>
-      <c r="E32">
+        <v>649431000</v>
+      </c>
+      <c r="E32" s="1">
         <v>25509.599999999999</v>
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2008</v>
       </c>
       <c r="B33" s="1">
-        <v>1836000</v>
+        <v>1878300</v>
       </c>
       <c r="C33" s="1">
-        <v>1052040</v>
+        <v>1097230</v>
       </c>
       <c r="D33" s="1">
-        <v>644075000</v>
-      </c>
-      <c r="E33">
-        <v>29270</v>
+        <v>624656000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>29270.799999999999</v>
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2009</v>
       </c>
       <c r="B34" s="1">
-        <v>1784120</v>
+        <v>1819940</v>
       </c>
       <c r="C34" s="1">
-        <v>1049880</v>
+        <v>1093150</v>
       </c>
       <c r="D34" s="1">
-        <v>463970000</v>
-      </c>
-      <c r="E34">
-        <v>24911.8</v>
+        <v>468129000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>24913.1</v>
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2010</v>
       </c>
       <c r="B35" s="1">
-        <v>1723620</v>
+        <v>1753930</v>
       </c>
       <c r="C35" s="1">
-        <v>1045960</v>
+        <v>1084960</v>
       </c>
       <c r="D35" s="1">
-        <v>451717000</v>
-      </c>
-      <c r="E35">
-        <v>24495.200000000001</v>
+        <v>457736000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>24498.1</v>
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
       <c r="B36" s="1">
-        <v>1662600</v>
+        <v>1687170</v>
       </c>
       <c r="C36" s="1">
-        <v>1040760</v>
+        <v>1073700</v>
       </c>
       <c r="D36" s="1">
-        <v>600732000</v>
-      </c>
-      <c r="E36">
-        <v>30965.9</v>
+        <v>584849000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>30962.5</v>
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2012</v>
       </c>
       <c r="B37" s="1">
-        <v>1602010</v>
+        <v>1619140</v>
       </c>
       <c r="C37" s="1">
-        <v>1024360</v>
+        <v>1050800</v>
       </c>
       <c r="D37" s="1">
-        <v>744114000</v>
-      </c>
-      <c r="E37">
-        <v>20620</v>
+        <v>689014000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>20615.7</v>
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2013</v>
       </c>
       <c r="B38" s="1">
-        <v>1560660</v>
+        <v>1568030</v>
       </c>
       <c r="C38" s="1">
-        <v>1004790</v>
+        <v>1025530</v>
       </c>
       <c r="D38" s="1">
-        <v>781273000</v>
-      </c>
-      <c r="E38">
-        <v>21537.8</v>
+        <v>700950000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>21536.400000000001</v>
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2014</v>
       </c>
       <c r="B39" s="1">
-        <v>1519560</v>
-      </c>
-      <c r="C39">
-        <v>971913</v>
+        <v>1516180</v>
+      </c>
+      <c r="C39" s="1">
+        <v>987968</v>
       </c>
       <c r="D39" s="1">
-        <v>639415000</v>
-      </c>
-      <c r="E39">
-        <v>36311</v>
+        <v>571774000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>36311.4</v>
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
       <c r="B40" s="1">
-        <v>1462640</v>
-      </c>
-      <c r="C40">
-        <v>916890</v>
+        <v>1449000</v>
+      </c>
+      <c r="C40" s="1">
+        <v>929376</v>
       </c>
       <c r="D40" s="1">
-        <v>550236000</v>
-      </c>
-      <c r="E40">
-        <v>19084.900000000001</v>
+        <v>505884000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>19082.8</v>
       </c>
       <c r="I40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2016</v>
       </c>
       <c r="B41" s="1">
-        <v>1428830</v>
-      </c>
-      <c r="C41">
-        <v>874407</v>
+        <v>1404870</v>
+      </c>
+      <c r="C41" s="1">
+        <v>884077</v>
       </c>
       <c r="D41" s="1">
-        <v>633468000</v>
-      </c>
-      <c r="E41">
-        <v>19819.8</v>
+        <v>578368000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>19818.599999999999</v>
       </c>
       <c r="I41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2017</v>
       </c>
       <c r="B42" s="1">
-        <v>1399970</v>
-      </c>
-      <c r="C42">
-        <v>837844</v>
+        <v>1366370</v>
+      </c>
+      <c r="C42" s="1">
+        <v>844001</v>
       </c>
       <c r="D42" s="1">
-        <v>684650000</v>
-      </c>
-      <c r="E42">
-        <v>26902.400000000001</v>
+        <v>632992000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>26903.3</v>
       </c>
       <c r="I42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2018</v>
       </c>
       <c r="B43" s="1">
-        <v>1384140</v>
-      </c>
-      <c r="C43">
-        <v>807321</v>
+        <v>1338260</v>
+      </c>
+      <c r="C43" s="1">
+        <v>807968</v>
       </c>
       <c r="D43" s="1">
-        <v>974684000</v>
-      </c>
-      <c r="E43">
-        <v>18833</v>
+        <v>856700000</v>
+      </c>
+      <c r="E43" s="1">
+        <v>18832.5</v>
       </c>
       <c r="I43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2019</v>
       </c>
       <c r="B44" s="1">
-        <v>1365790</v>
-      </c>
-      <c r="C44">
-        <v>792545</v>
+        <v>1315390</v>
+      </c>
+      <c r="C44" s="1">
+        <v>785828</v>
       </c>
       <c r="D44" s="1">
-        <v>496959000</v>
-      </c>
-      <c r="E44">
-        <v>24584.7</v>
+        <v>555772000</v>
+      </c>
+      <c r="E44" s="1">
+        <v>24580.1</v>
       </c>
       <c r="I44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2020</v>
       </c>
       <c r="B45" s="1">
-        <v>1346090</v>
-      </c>
-      <c r="C45">
-        <v>774292</v>
+        <v>1293700</v>
+      </c>
+      <c r="C45" s="1">
+        <v>759757</v>
       </c>
       <c r="D45" s="1">
-        <v>643247000</v>
-      </c>
-      <c r="E45">
-        <v>21125</v>
+        <v>661233000</v>
+      </c>
+      <c r="E45" s="1">
+        <v>21120.2</v>
       </c>
       <c r="I45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2021</v>
       </c>
       <c r="B46" s="1">
-        <v>1331100</v>
-      </c>
-      <c r="C46">
-        <v>754860</v>
+        <v>1279720</v>
+      </c>
+      <c r="C46" s="1">
+        <v>733359</v>
       </c>
       <c r="D46" s="1">
-        <v>684898000</v>
-      </c>
-      <c r="E46">
-        <v>9988.0300000000007</v>
+        <v>707335000</v>
+      </c>
+      <c r="E46" s="1">
+        <v>9986.57</v>
       </c>
       <c r="I46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
       <c r="B47" s="1">
-        <v>1330930</v>
-      </c>
-      <c r="C47">
-        <v>746783</v>
+        <v>1281620</v>
+      </c>
+      <c r="C47" s="1">
+        <v>719298</v>
       </c>
       <c r="D47" s="1">
-        <v>713088000</v>
-      </c>
-      <c r="E47">
-        <v>11630.1</v>
+        <v>710551000</v>
+      </c>
+      <c r="E47" s="1">
+        <v>11627.6</v>
       </c>
       <c r="I47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2023</v>
       </c>
       <c r="B48" s="1">
-        <v>1316630</v>
+        <v>1270450</v>
       </c>
       <c r="C48">
-        <v>744001</v>
+        <v>710935</v>
       </c>
       <c r="D48" s="1">
         <v>436000000</v>
       </c>
       <c r="E48">
-        <v>9028.42</v>
+        <v>9025.6299999999992</v>
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I57" s="1"/>
     </row>
   </sheetData>
@@ -3393,12 +3394,12 @@
       <selection activeCell="F21" sqref="F21:F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3775,7 +3776,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>6.0010800000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>4.4481499999999999E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>3.5188299999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>3.39489E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -4535,7 +4536,7 @@
         <v>3.4160800000000003E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>3.6658900000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -4839,7 +4840,7 @@
         <v>2.9765400000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -4991,7 +4992,7 @@
         <v>2.5521499999999999E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -5143,7 +5144,7 @@
         <v>3.62085E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>4.5082599999999998E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>5.2109699999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -5599,7 +5600,7 @@
         <v>5.8251799999999997E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -5751,7 +5752,7 @@
         <v>5.9620599999999995E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -5903,7 +5904,7 @@
         <v>5.5494799999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -6055,7 +6056,7 @@
         <v>5.9321999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -6207,7 +6208,7 @@
         <v>7.3705199999999998E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -6389,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -6571,7 +6572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -6753,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -6935,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -7117,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -7299,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -7481,7 +7482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -7845,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -8027,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -8209,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -8391,7 +8392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -8573,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -8755,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -8937,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -9119,7 +9120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -9301,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -9483,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -9847,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -10029,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -10211,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -10393,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -10575,7 +10576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -10757,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -10939,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -11121,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -11303,7 +11304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -11485,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -11667,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -11849,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -12031,7 +12032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -12213,7 +12214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -12395,7 +12396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -12577,7 +12578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -12759,7 +12760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -12941,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -13123,7 +13124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -13305,7 +13306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -13487,7 +13488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -13669,7 +13670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -13851,7 +13852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -14033,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -14215,7 +14216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -14397,7 +14398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -14579,7 +14580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -14761,7 +14762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -14943,7 +14944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -15125,7 +15126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -15316,13 +15317,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE142F5-64D0-4F45-B959-4454907C888C}">
   <dimension ref="A1:AW48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15330,7 +15331,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1977</v>
       </c>
@@ -15338,7 +15339,7 @@
         <v>1121760</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1978</v>
       </c>
@@ -15393,7 +15394,7 @@
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1979</v>
       </c>
@@ -15401,7 +15402,7 @@
         <v>1097440</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1980</v>
       </c>
@@ -15409,7 +15410,7 @@
         <v>1093700</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1981</v>
       </c>
@@ -15417,7 +15418,7 @@
         <v>1095670</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1982</v>
       </c>
@@ -15425,7 +15426,7 @@
         <v>1099390</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1983</v>
       </c>
@@ -15433,7 +15434,7 @@
         <v>1101300</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1984</v>
       </c>
@@ -15441,7 +15442,7 @@
         <v>1096850</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1985</v>
       </c>
@@ -15449,7 +15450,7 @@
         <v>1098900</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1986</v>
       </c>
@@ -15457,7 +15458,7 @@
         <v>1119820</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1987</v>
       </c>
@@ -15465,7 +15466,7 @@
         <v>1169730</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1988</v>
       </c>
@@ -15473,7 +15474,7 @@
         <v>1238350</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1989</v>
       </c>
@@ -15481,7 +15482,7 @@
         <v>1313700</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1990</v>
       </c>
@@ -15489,7 +15490,7 @@
         <v>1390770</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1991</v>
       </c>
@@ -15497,7 +15498,7 @@
         <v>1455830</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -15505,7 +15506,7 @@
         <v>1498300</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -15513,7 +15514,7 @@
         <v>1525370</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1994</v>
       </c>
@@ -15521,7 +15522,7 @@
         <v>1546720</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1995</v>
       </c>
@@ -15529,7 +15530,7 @@
         <v>1550130</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1996</v>
       </c>
@@ -15537,7 +15538,7 @@
         <v>1545130</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1997</v>
       </c>
@@ -15545,7 +15546,7 @@
         <v>1530300</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -15553,7 +15554,7 @@
         <v>1522600</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1999</v>
       </c>
@@ -15561,7 +15562,7 @@
         <v>1527720</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -15569,7 +15570,7 @@
         <v>1550980</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2001</v>
       </c>
@@ -15577,7 +15578,7 @@
         <v>1591680</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -15585,7 +15586,7 @@
         <v>1658830</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2003</v>
       </c>
@@ -15593,7 +15594,7 @@
         <v>1720270</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2004</v>
       </c>
@@ -15601,7 +15602,7 @@
         <v>1746760</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -15609,7 +15610,7 @@
         <v>1768170</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2006</v>
       </c>
@@ -15617,7 +15618,7 @@
         <v>1772100</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2007</v>
       </c>
@@ -15625,7 +15626,7 @@
         <v>1761340</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2008</v>
       </c>
@@ -15633,7 +15634,7 @@
         <v>1744630</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2009</v>
       </c>
@@ -15641,7 +15642,7 @@
         <v>1707540</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2010</v>
       </c>
@@ -15649,7 +15650,7 @@
         <v>1656920</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -15657,7 +15658,7 @@
         <v>1592240</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2012</v>
       </c>
@@ -15665,7 +15666,7 @@
         <v>1512220</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2013</v>
       </c>
@@ -15673,7 +15674,7 @@
         <v>1446620</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2014</v>
       </c>
@@ -15681,7 +15682,7 @@
         <v>1392350</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -15689,7 +15690,7 @@
         <v>1333880</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -15697,7 +15698,7 @@
         <v>1295850</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -15705,7 +15706,7 @@
         <v>1254780</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -15713,7 +15714,7 @@
         <v>1210000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -15721,7 +15722,7 @@
         <v>1184000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -15729,7 +15730,7 @@
         <v>1166600</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -15737,7 +15738,7 @@
         <v>1155330</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -15745,7 +15746,7 @@
         <v>1154120</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2023</v>
       </c>

--- a/data/2023_SAFE_biomass_estimate.xlsx
+++ b/data/2023_SAFE_biomass_estimate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grant.adams\GitHub\GOA ATF ESP\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/GOA-ATF-ESP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD83396F-C320-4213-92FB-B117525C59CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DCB689-89C8-F541-B3E4-22BA52A7D4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1455" windowWidth="24645" windowHeight="13380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023 SAFE" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2023 Multinomial-Sel SAFE" sheetId="3" r:id="rId3"/>
     <sheet name="2023 SAFE Comp" sheetId="4" r:id="rId4"/>
     <sheet name="2023 SAFE PredSrv" sheetId="5" r:id="rId5"/>
+    <sheet name="2023 SAFE selectivity" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="138">
   <si>
     <t>Year</t>
   </si>
@@ -429,6 +430,21 @@
   <si>
     <t>Pred</t>
   </si>
+  <si>
+    <t>Fishsel_fem</t>
+  </si>
+  <si>
+    <t>Fishsel_mal</t>
+  </si>
+  <si>
+    <t>Survsel_fem</t>
+  </si>
+  <si>
+    <t>Survsel_mal</t>
+  </si>
+  <si>
+    <t>Pred catch</t>
+  </si>
 </sst>
 </file>
 
@@ -504,9 +520,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -544,7 +560,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -650,7 +666,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -792,7 +808,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -806,9 +822,9 @@
       <selection sqref="A1:D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -822,7 +838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1977</v>
       </c>
@@ -837,7 +853,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1978</v>
       </c>
@@ -852,7 +868,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1979</v>
       </c>
@@ -867,7 +883,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1980</v>
       </c>
@@ -882,7 +898,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1981</v>
       </c>
@@ -897,7 +913,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1982</v>
       </c>
@@ -912,7 +928,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1983</v>
       </c>
@@ -927,7 +943,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1984</v>
       </c>
@@ -942,7 +958,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1985</v>
       </c>
@@ -999,7 +1015,7 @@
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1986</v>
       </c>
@@ -1014,7 +1030,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1987</v>
       </c>
@@ -1029,7 +1045,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1988</v>
       </c>
@@ -1044,7 +1060,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1989</v>
       </c>
@@ -1059,7 +1075,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1990</v>
       </c>
@@ -1074,7 +1090,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1991</v>
       </c>
@@ -1089,7 +1105,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -1104,7 +1120,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -1119,7 +1135,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1994</v>
       </c>
@@ -1134,7 +1150,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1995</v>
       </c>
@@ -1149,7 +1165,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1996</v>
       </c>
@@ -1164,7 +1180,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1997</v>
       </c>
@@ -1179,7 +1195,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -1194,7 +1210,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1999</v>
       </c>
@@ -1209,7 +1225,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -1224,7 +1240,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2001</v>
       </c>
@@ -1239,7 +1255,7 @@
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -1254,7 +1270,7 @@
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2003</v>
       </c>
@@ -1269,7 +1285,7 @@
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2004</v>
       </c>
@@ -1284,7 +1300,7 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -1299,7 +1315,7 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2006</v>
       </c>
@@ -1314,7 +1330,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2007</v>
       </c>
@@ -1329,7 +1345,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2008</v>
       </c>
@@ -1344,7 +1360,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2009</v>
       </c>
@@ -1359,7 +1375,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2010</v>
       </c>
@@ -1374,7 +1390,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -1389,7 +1405,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2012</v>
       </c>
@@ -1404,7 +1420,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2013</v>
       </c>
@@ -1419,7 +1435,7 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2014</v>
       </c>
@@ -1434,7 +1450,7 @@
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -1449,7 +1465,7 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -1464,7 +1480,7 @@
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -1479,7 +1495,7 @@
       </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -1494,7 +1510,7 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -1509,7 +1525,7 @@
       </c>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -1524,7 +1540,7 @@
       </c>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -1539,7 +1555,7 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -1553,7 +1569,7 @@
         <v>714778000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -1580,9 +1596,9 @@
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1977</v>
       </c>
@@ -1610,7 +1626,7 @@
         <v>605490000</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1978</v>
       </c>
@@ -1624,7 +1640,7 @@
         <v>682866000</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1979</v>
       </c>
@@ -1638,7 +1654,7 @@
         <v>745158000</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1980</v>
       </c>
@@ -1652,7 +1668,7 @@
         <v>674859000</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1981</v>
       </c>
@@ -1666,7 +1682,7 @@
         <v>568368000</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1982</v>
       </c>
@@ -1680,7 +1696,7 @@
         <v>549460000</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1983</v>
       </c>
@@ -1694,7 +1710,7 @@
         <v>625398000</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1984</v>
       </c>
@@ -1708,7 +1724,7 @@
         <v>864931000</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1985</v>
       </c>
@@ -1722,7 +1738,7 @@
         <v>1222700000</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1986</v>
       </c>
@@ -1736,7 +1752,7 @@
         <v>1084360000</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1987</v>
       </c>
@@ -1759,7 +1775,7 @@
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1988</v>
       </c>
@@ -1773,7 +1789,7 @@
         <v>1091420000</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1989</v>
       </c>
@@ -1787,7 +1803,7 @@
         <v>1048170000</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1990</v>
       </c>
@@ -1801,7 +1817,7 @@
         <v>897513000</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1991</v>
       </c>
@@ -1815,7 +1831,7 @@
         <v>968279000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -1829,7 +1845,7 @@
         <v>925601000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -1843,7 +1859,7 @@
         <v>728317000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1994</v>
       </c>
@@ -1857,7 +1873,7 @@
         <v>725103000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1995</v>
       </c>
@@ -1871,7 +1887,7 @@
         <v>777965000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1996</v>
       </c>
@@ -1885,7 +1901,7 @@
         <v>747685000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1997</v>
       </c>
@@ -1899,7 +1915,7 @@
         <v>893119000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -1913,7 +1929,7 @@
         <v>1112310000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1999</v>
       </c>
@@ -1927,7 +1943,7 @@
         <v>1201560000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -1941,7 +1957,7 @@
         <v>1548970000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2001</v>
       </c>
@@ -1955,7 +1971,7 @@
         <v>1038470000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -1969,7 +1985,7 @@
         <v>957958000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2003</v>
       </c>
@@ -1983,7 +1999,7 @@
         <v>885082000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2004</v>
       </c>
@@ -1997,7 +2013,7 @@
         <v>943005000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -2012,7 +2028,7 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2006</v>
       </c>
@@ -2027,7 +2043,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2007</v>
       </c>
@@ -2042,7 +2058,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2008</v>
       </c>
@@ -2057,7 +2073,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2009</v>
       </c>
@@ -2072,7 +2088,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2010</v>
       </c>
@@ -2087,7 +2103,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -2102,7 +2118,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2012</v>
       </c>
@@ -2117,7 +2133,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2013</v>
       </c>
@@ -2132,7 +2148,7 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2014</v>
       </c>
@@ -2146,7 +2162,7 @@
         <v>638727000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -2160,7 +2176,7 @@
         <v>553546000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -2174,7 +2190,7 @@
         <v>632694000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -2188,7 +2204,7 @@
         <v>684799000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2202,7 +2218,7 @@
         <v>964654000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -2216,7 +2232,7 @@
         <v>492254000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -2230,7 +2246,7 @@
         <v>644098000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -2244,7 +2260,7 @@
         <v>706796000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -2258,7 +2274,7 @@
         <v>711843000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -2281,13 +2297,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8A6A43-C54E-472F-8AB4-99CF80E5A049}">
   <dimension ref="A1:BC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +2320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1977</v>
       </c>
@@ -2321,7 +2337,7 @@
         <v>9448.42</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1978</v>
       </c>
@@ -2385,7 +2401,7 @@
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1979</v>
       </c>
@@ -2450,7 +2466,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1980</v>
       </c>
@@ -2475,7 +2491,7 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1981</v>
       </c>
@@ -2500,7 +2516,7 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1982</v>
       </c>
@@ -2564,7 +2580,7 @@
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1983</v>
       </c>
@@ -2628,7 +2644,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1984</v>
       </c>
@@ -2645,7 +2661,7 @@
         <v>3456.46</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1985</v>
       </c>
@@ -2662,7 +2678,7 @@
         <v>1538.88</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1986</v>
       </c>
@@ -2680,7 +2696,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1987</v>
       </c>
@@ -2698,7 +2714,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1988</v>
       </c>
@@ -2716,7 +2732,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1989</v>
       </c>
@@ -2734,7 +2750,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1990</v>
       </c>
@@ -2752,7 +2768,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1991</v>
       </c>
@@ -2770,7 +2786,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -2788,7 +2804,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -2806,7 +2822,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1994</v>
       </c>
@@ -2824,7 +2840,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1995</v>
       </c>
@@ -2842,7 +2858,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1996</v>
       </c>
@@ -2860,7 +2876,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1997</v>
       </c>
@@ -2878,7 +2894,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -2896,7 +2912,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1999</v>
       </c>
@@ -2914,7 +2930,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -2932,7 +2948,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2001</v>
       </c>
@@ -2950,7 +2966,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -2968,7 +2984,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2003</v>
       </c>
@@ -2986,7 +3002,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2004</v>
       </c>
@@ -3004,7 +3020,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -3022,7 +3038,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2006</v>
       </c>
@@ -3040,7 +3056,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2007</v>
       </c>
@@ -3058,7 +3074,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2008</v>
       </c>
@@ -3076,7 +3092,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2009</v>
       </c>
@@ -3094,7 +3110,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2010</v>
       </c>
@@ -3112,7 +3128,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -3130,7 +3146,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2012</v>
       </c>
@@ -3148,7 +3164,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2013</v>
       </c>
@@ -3166,7 +3182,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2014</v>
       </c>
@@ -3184,7 +3200,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -3203,7 +3219,7 @@
       <c r="I40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -3222,7 +3238,7 @@
       <c r="I41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -3241,7 +3257,7 @@
       <c r="I42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -3260,7 +3276,7 @@
       <c r="I43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -3279,7 +3295,7 @@
       <c r="I44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -3298,7 +3314,7 @@
       <c r="I45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -3317,7 +3333,7 @@
       <c r="I46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -3336,7 +3352,7 @@
       <c r="I47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -3354,31 +3370,31 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I57" s="1"/>
     </row>
   </sheetData>
@@ -3394,12 +3410,12 @@
       <selection activeCell="F21" sqref="F21:F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3776,7 +3792,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -3928,7 +3944,7 @@
         <v>6.0010800000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -4080,7 +4096,7 @@
         <v>4.4481499999999999E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -4232,7 +4248,7 @@
         <v>3.5188299999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -4384,7 +4400,7 @@
         <v>3.39489E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -4536,7 +4552,7 @@
         <v>3.4160800000000003E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -4688,7 +4704,7 @@
         <v>3.6658900000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -4840,7 +4856,7 @@
         <v>2.9765400000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -4992,7 +5008,7 @@
         <v>2.5521499999999999E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -5144,7 +5160,7 @@
         <v>3.62085E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -5296,7 +5312,7 @@
         <v>4.5082599999999998E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -5448,7 +5464,7 @@
         <v>5.2109699999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -5600,7 +5616,7 @@
         <v>5.8251799999999997E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -5752,7 +5768,7 @@
         <v>5.9620599999999995E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -5904,7 +5920,7 @@
         <v>5.5494799999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:125" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:125" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -6056,7 +6072,7 @@
         <v>5.9321999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -6208,7 +6224,7 @@
         <v>7.3705199999999998E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -6390,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -6572,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -6754,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -6936,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -7118,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -7300,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -7482,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -7664,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -7846,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -8028,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -8210,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -8392,7 +8408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -8574,7 +8590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -8756,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -8938,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -9120,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -9302,7 +9318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -9484,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -9666,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -9848,7 +9864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -10030,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -10212,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -10394,7 +10410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -10576,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -10758,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -10940,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -11122,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -11304,7 +11320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -11486,7 +11502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -11668,7 +11684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -11850,7 +11866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -12032,7 +12048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -12214,7 +12230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -12396,7 +12412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -12578,7 +12594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -12760,7 +12776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -12942,7 +12958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -13124,7 +13140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -13306,7 +13322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -13488,7 +13504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -13670,7 +13686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -13852,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -14034,7 +14050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -14216,7 +14232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -14398,7 +14414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -14580,7 +14596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -14762,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -14944,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -15126,7 +15142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -15317,36 +15333,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE142F5-64D0-4F45-B959-4454907C888C}">
   <dimension ref="A1:AW48"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1977</v>
       </c>
       <c r="B2" s="1">
         <v>1121760</v>
       </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>9449.0400000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1978</v>
       </c>
       <c r="B3" s="1">
         <v>1107720</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3">
+        <v>8409.0300000000007</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -15394,364 +15418,822 @@
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1979</v>
       </c>
       <c r="B4" s="1">
         <v>1097440</v>
       </c>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>7579.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1980</v>
       </c>
       <c r="B5" s="1">
         <v>1093700</v>
       </c>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>7848.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1981</v>
       </c>
       <c r="B6" s="1">
         <v>1095670</v>
       </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>7433.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1982</v>
       </c>
       <c r="B7" s="1">
         <v>1099390</v>
       </c>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>4639.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1983</v>
       </c>
       <c r="B8" s="1">
         <v>1101300</v>
       </c>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>6331.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1984</v>
       </c>
       <c r="B9" s="1">
         <v>1096850</v>
       </c>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>3457.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1985</v>
       </c>
       <c r="B10" s="1">
         <v>1098900</v>
       </c>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1986</v>
       </c>
       <c r="B11" s="1">
         <v>1119820</v>
       </c>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1987</v>
       </c>
       <c r="B12" s="1">
         <v>1169730</v>
       </c>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>4962.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1988</v>
       </c>
       <c r="B13" s="1">
         <v>1238350</v>
       </c>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>5137.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1989</v>
       </c>
       <c r="B14" s="1">
         <v>1313700</v>
       </c>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>2583.9899999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1990</v>
       </c>
       <c r="B15" s="1">
         <v>1390770</v>
       </c>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>7705.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1991</v>
       </c>
       <c r="B16" s="1">
         <v>1455830</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>17387.900000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1992</v>
       </c>
       <c r="B17" s="1">
         <v>1498300</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>21915.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1993</v>
       </c>
       <c r="B18" s="1">
         <v>1525370</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>19078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1994</v>
       </c>
       <c r="B19" s="1">
         <v>1546720</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>22917.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1995</v>
       </c>
       <c r="B20" s="1">
         <v>1550130</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>18278.900000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1996</v>
       </c>
       <c r="B21" s="1">
         <v>1545130</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>22484.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1997</v>
       </c>
       <c r="B22" s="1">
         <v>1530300</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>16363.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1998</v>
       </c>
       <c r="B23" s="1">
         <v>1522600</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>12958.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1999</v>
       </c>
       <c r="B24" s="1">
         <v>1527720</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>16141.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2000</v>
       </c>
       <c r="B25" s="1">
         <v>1550980</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>24210.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2001</v>
       </c>
       <c r="B26" s="1">
         <v>1591680</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>19925.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2002</v>
       </c>
       <c r="B27" s="1">
         <v>1658830</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>21212.400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2003</v>
       </c>
       <c r="B28" s="1">
         <v>1720270</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>30254.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2004</v>
       </c>
       <c r="B29" s="1">
         <v>1746760</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>15758</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2005</v>
       </c>
       <c r="B30" s="1">
         <v>1768170</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>19989.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2006</v>
       </c>
       <c r="B31" s="1">
         <v>1772100</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>27739.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2007</v>
       </c>
       <c r="B32" s="1">
         <v>1761340</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>25509.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2008</v>
       </c>
       <c r="B33" s="1">
         <v>1744630</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>29271.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2009</v>
       </c>
       <c r="B34" s="1">
         <v>1707540</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>24913.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2010</v>
       </c>
       <c r="B35" s="1">
         <v>1656920</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>24497.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2011</v>
       </c>
       <c r="B36" s="1">
         <v>1592240</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>30961.200000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2012</v>
       </c>
       <c r="B37" s="1">
         <v>1512220</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>20616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2013</v>
       </c>
       <c r="B38" s="1">
         <v>1446620</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>21536.799999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2014</v>
       </c>
       <c r="B39" s="1">
         <v>1392350</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>36313.599999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2015</v>
       </c>
       <c r="B40" s="1">
         <v>1333880</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>19084.400000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2016</v>
       </c>
       <c r="B41" s="1">
         <v>1295850</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>19820.599999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2017</v>
       </c>
       <c r="B42" s="1">
         <v>1254780</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>26905.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2018</v>
       </c>
       <c r="B43" s="1">
         <v>1210000</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>18833.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2019</v>
       </c>
       <c r="B44" s="1">
         <v>1184000</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>24581.200000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2020</v>
       </c>
       <c r="B45" s="1">
         <v>1166600</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>21122.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2021</v>
       </c>
       <c r="B46" s="1">
         <v>1155330</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>9988.41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2022</v>
       </c>
       <c r="B47" s="1">
         <v>1154120</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>11631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2023</v>
       </c>
       <c r="B48" s="1">
         <v>1154520</v>
+      </c>
+      <c r="C48">
+        <v>9028.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1272A8-05A8-5D45-AE6A-011DE66FC6AB}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4.4710899999999996E-3</v>
+      </c>
+      <c r="B2">
+        <v>6.7309099999999997E-3</v>
+      </c>
+      <c r="C2">
+        <v>4.44207E-2</v>
+      </c>
+      <c r="D2">
+        <v>3.3764700000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1.1901800000000001E-2</v>
+      </c>
+      <c r="B3">
+        <v>1.6661499999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.204369</v>
+      </c>
+      <c r="D3">
+        <v>0.159807</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3.0813299999999998E-2</v>
+      </c>
+      <c r="B4">
+        <v>4.0589800000000002E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.58666399999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.50866599999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7.3560899999999999E-2</v>
+      </c>
+      <c r="B5">
+        <v>9.4232099999999999E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.88691299999999995</v>
+      </c>
+      <c r="D5">
+        <v>0.84928400000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.154139</v>
+      </c>
+      <c r="B6">
+        <v>0.20016800000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.97744500000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.96842600000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.28117399999999998</v>
+      </c>
+      <c r="B7">
+        <v>0.37435600000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.99584099999999998</v>
+      </c>
+      <c r="D7">
+        <v>0.99404599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.45882299999999998</v>
+      </c>
+      <c r="B8">
+        <v>0.59981700000000004</v>
+      </c>
+      <c r="C8">
+        <v>0.99924500000000005</v>
+      </c>
+      <c r="D8">
+        <v>0.99890100000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.67904600000000004</v>
+      </c>
+      <c r="B9">
+        <v>0.81645199999999996</v>
+      </c>
+      <c r="C9">
+        <v>0.99986299999999995</v>
+      </c>
+      <c r="D9">
+        <v>0.99979799999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="B10">
+        <v>0.956569</v>
+      </c>
+      <c r="C10">
+        <v>0.99997499999999995</v>
+      </c>
+      <c r="D10">
+        <v>0.99996300000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.97401000000000004</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.999996</v>
+      </c>
+      <c r="D11">
+        <v>0.99999300000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.969808</v>
+      </c>
+      <c r="B12">
+        <v>0.986707</v>
+      </c>
+      <c r="C12">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="D12">
+        <v>0.99999899999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.95575900000000003</v>
+      </c>
+      <c r="B13">
+        <v>0.95683600000000002</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.93799900000000003</v>
+      </c>
+      <c r="B14">
+        <v>0.92162900000000003</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.91908900000000004</v>
+      </c>
+      <c r="B15">
+        <v>0.88556100000000004</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.90079799999999999</v>
+      </c>
+      <c r="B16">
+        <v>0.85112200000000005</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.88379099999999999</v>
+      </c>
+      <c r="B17">
+        <v>0.81995799999999996</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.86850499999999997</v>
+      </c>
+      <c r="B18">
+        <v>0.79328600000000005</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0.85483600000000004</v>
+      </c>
+      <c r="B19">
+        <v>0.77216700000000005</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0.84284000000000003</v>
+      </c>
+      <c r="B20">
+        <v>0.75843300000000002</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.84284000000000003</v>
+      </c>
+      <c r="B21">
+        <v>0.75843300000000002</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0.84284000000000003</v>
+      </c>
+      <c r="B22">
+        <v>0.75843300000000002</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/2023_SAFE_biomass_estimate.xlsx
+++ b/data/2023_SAFE_biomass_estimate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/GOA-ATF-ESP/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant Adams\Documents\GitHub\GOA-ATF-ESP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73DCB689-89C8-F541-B3E4-22BA52A7D4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8169FAF0-2EEC-4EEF-B358-13A433A9153B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2340" windowWidth="23775" windowHeight="12210" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023 SAFE" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="2023 SAFE Comp" sheetId="4" r:id="rId4"/>
     <sheet name="2023 SAFE PredSrv" sheetId="5" r:id="rId5"/>
     <sheet name="2023 SAFE selectivity" sheetId="6" r:id="rId6"/>
+    <sheet name="ADMB CEATTLE par" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="138">
   <si>
     <t>Year</t>
   </si>
@@ -818,13 +819,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA48"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1977</v>
       </c>
@@ -853,7 +854,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1978</v>
       </c>
@@ -868,7 +869,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1979</v>
       </c>
@@ -883,7 +884,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1980</v>
       </c>
@@ -898,7 +899,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1981</v>
       </c>
@@ -913,7 +914,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1982</v>
       </c>
@@ -928,7 +929,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1983</v>
       </c>
@@ -943,7 +944,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1984</v>
       </c>
@@ -958,7 +959,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1985</v>
       </c>
@@ -1015,7 +1016,7 @@
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1986</v>
       </c>
@@ -1030,7 +1031,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1987</v>
       </c>
@@ -1045,7 +1046,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1988</v>
       </c>
@@ -1060,7 +1061,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1989</v>
       </c>
@@ -1075,7 +1076,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1990</v>
       </c>
@@ -1090,7 +1091,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1991</v>
       </c>
@@ -1105,7 +1106,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -1120,7 +1121,7 @@
       </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -1135,7 +1136,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1994</v>
       </c>
@@ -1150,7 +1151,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1995</v>
       </c>
@@ -1165,7 +1166,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1996</v>
       </c>
@@ -1180,7 +1181,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1997</v>
       </c>
@@ -1195,7 +1196,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -1210,7 +1211,7 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1999</v>
       </c>
@@ -1225,7 +1226,7 @@
       </c>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -1240,7 +1241,7 @@
       </c>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2001</v>
       </c>
@@ -1255,7 +1256,7 @@
       </c>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -1270,7 +1271,7 @@
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2003</v>
       </c>
@@ -1285,7 +1286,7 @@
       </c>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2004</v>
       </c>
@@ -1300,7 +1301,7 @@
       </c>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -1315,7 +1316,7 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2006</v>
       </c>
@@ -1330,7 +1331,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2007</v>
       </c>
@@ -1345,7 +1346,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2008</v>
       </c>
@@ -1360,7 +1361,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2009</v>
       </c>
@@ -1375,7 +1376,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2010</v>
       </c>
@@ -1390,7 +1391,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -1405,7 +1406,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2012</v>
       </c>
@@ -1420,7 +1421,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2013</v>
       </c>
@@ -1435,7 +1436,7 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2014</v>
       </c>
@@ -1450,7 +1451,7 @@
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -1465,7 +1466,7 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -1480,7 +1481,7 @@
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -1495,7 +1496,7 @@
       </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -1510,7 +1511,7 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -1525,7 +1526,7 @@
       </c>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -1540,7 +1541,7 @@
       </c>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -1555,7 +1556,7 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>714778000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -1596,9 +1597,9 @@
       <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1612,7 +1613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1977</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>605490000</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1978</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>682866000</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1979</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>745158000</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1980</v>
       </c>
@@ -1668,7 +1669,7 @@
         <v>674859000</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1981</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>568368000</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1982</v>
       </c>
@@ -1696,7 +1697,7 @@
         <v>549460000</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1983</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>625398000</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1984</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>864931000</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1985</v>
       </c>
@@ -1738,7 +1739,7 @@
         <v>1222700000</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1986</v>
       </c>
@@ -1752,7 +1753,7 @@
         <v>1084360000</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1987</v>
       </c>
@@ -1775,7 +1776,7 @@
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1988</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>1091420000</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1989</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>1048170000</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1990</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>897513000</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1991</v>
       </c>
@@ -1831,7 +1832,7 @@
         <v>968279000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>925601000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -1859,7 +1860,7 @@
         <v>728317000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1994</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>725103000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1995</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>777965000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1996</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>747685000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1997</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>893119000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>1112310000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1999</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>1201560000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>1548970000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2001</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>1038470000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>957958000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2003</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>885082000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2004</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>943005000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -2028,7 +2029,7 @@
       </c>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2006</v>
       </c>
@@ -2043,7 +2044,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2007</v>
       </c>
@@ -2058,7 +2059,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2008</v>
       </c>
@@ -2073,7 +2074,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2009</v>
       </c>
@@ -2088,7 +2089,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2010</v>
       </c>
@@ -2103,7 +2104,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -2118,7 +2119,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2012</v>
       </c>
@@ -2133,7 +2134,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2013</v>
       </c>
@@ -2148,7 +2149,7 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2014</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>638727000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>553546000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -2190,7 +2191,7 @@
         <v>632694000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>684799000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>964654000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>492254000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>644098000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -2260,7 +2261,7 @@
         <v>706796000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>711843000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -2298,12 +2299,12 @@
   <dimension ref="A1:BC57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B6" sqref="A1:E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2320,7 +2321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1977</v>
       </c>
@@ -2337,7 +2338,7 @@
         <v>9448.42</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1978</v>
       </c>
@@ -2401,7 +2402,7 @@
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1979</v>
       </c>
@@ -2466,7 +2467,7 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1980</v>
       </c>
@@ -2491,7 +2492,7 @@
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1981</v>
       </c>
@@ -2516,7 +2517,7 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1982</v>
       </c>
@@ -2580,7 +2581,7 @@
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1983</v>
       </c>
@@ -2644,7 +2645,7 @@
       <c r="BA8" s="1"/>
       <c r="BB8" s="1"/>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1984</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>3456.46</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1985</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>1538.88</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1986</v>
       </c>
@@ -2696,7 +2697,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1987</v>
       </c>
@@ -2714,7 +2715,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1988</v>
       </c>
@@ -2732,7 +2733,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1989</v>
       </c>
@@ -2750,7 +2751,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1990</v>
       </c>
@@ -2768,7 +2769,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1991</v>
       </c>
@@ -2786,7 +2787,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -2804,7 +2805,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -2822,7 +2823,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1994</v>
       </c>
@@ -2840,7 +2841,7 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1995</v>
       </c>
@@ -2858,7 +2859,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1996</v>
       </c>
@@ -2876,7 +2877,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1997</v>
       </c>
@@ -2894,7 +2895,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -2912,7 +2913,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1999</v>
       </c>
@@ -2930,7 +2931,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -2948,7 +2949,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2001</v>
       </c>
@@ -2966,7 +2967,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -2984,7 +2985,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2003</v>
       </c>
@@ -3002,7 +3003,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2004</v>
       </c>
@@ -3020,7 +3021,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -3038,7 +3039,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2006</v>
       </c>
@@ -3056,7 +3057,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2007</v>
       </c>
@@ -3074,7 +3075,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2008</v>
       </c>
@@ -3092,7 +3093,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2009</v>
       </c>
@@ -3110,7 +3111,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2010</v>
       </c>
@@ -3128,7 +3129,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -3146,7 +3147,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2012</v>
       </c>
@@ -3164,7 +3165,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2013</v>
       </c>
@@ -3182,7 +3183,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2014</v>
       </c>
@@ -3200,7 +3201,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -3219,7 +3220,7 @@
       <c r="I40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -3238,7 +3239,7 @@
       <c r="I41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -3257,7 +3258,7 @@
       <c r="I42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -3276,7 +3277,7 @@
       <c r="I43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -3295,7 +3296,7 @@
       <c r="I44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -3314,7 +3315,7 @@
       <c r="I45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -3333,7 +3334,7 @@
       <c r="I46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -3352,7 +3353,7 @@
       <c r="I47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -3370,31 +3371,31 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I57" s="1"/>
     </row>
   </sheetData>
@@ -3410,12 +3411,12 @@
       <selection activeCell="F21" sqref="F21:F67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3792,7 +3793,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>6.0010800000000002E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>4.4481499999999999E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -4248,7 +4249,7 @@
         <v>3.5188299999999999E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -4400,7 +4401,7 @@
         <v>3.39489E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -4552,7 +4553,7 @@
         <v>3.4160800000000003E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -4704,7 +4705,7 @@
         <v>3.6658900000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>2.9765400000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -5008,7 +5009,7 @@
         <v>2.5521499999999999E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>129</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>3.62085E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>4.5082599999999998E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -5464,7 +5465,7 @@
         <v>5.2109699999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -5616,7 +5617,7 @@
         <v>5.8251799999999997E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -5768,7 +5769,7 @@
         <v>5.9620599999999995E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>5.5494799999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:125" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -6072,7 +6073,7 @@
         <v>5.9321999999999999E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -6224,7 +6225,7 @@
         <v>7.3705199999999998E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -6406,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -6770,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -6952,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>131</v>
       </c>
@@ -7134,7 +7135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -7316,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -7498,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -7680,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -7862,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>131</v>
       </c>
@@ -8044,7 +8045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -8226,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -8408,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -8590,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -8772,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>131</v>
       </c>
@@ -8954,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -9136,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>131</v>
       </c>
@@ -9318,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>131</v>
       </c>
@@ -9500,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>131</v>
       </c>
@@ -9682,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -9864,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -10046,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -10228,7 +10229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -10410,7 +10411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -10592,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -10774,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>131</v>
       </c>
@@ -10956,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -11138,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>131</v>
       </c>
@@ -11320,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>131</v>
       </c>
@@ -11502,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -11684,7 +11685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>131</v>
       </c>
@@ -11866,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>131</v>
       </c>
@@ -12048,7 +12049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -12230,7 +12231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>131</v>
       </c>
@@ -12412,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>131</v>
       </c>
@@ -12594,7 +12595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>131</v>
       </c>
@@ -12776,7 +12777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -12958,7 +12959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -13140,7 +13141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>131</v>
       </c>
@@ -13322,7 +13323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -13504,7 +13505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>131</v>
       </c>
@@ -13686,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>131</v>
       </c>
@@ -13868,7 +13869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -14050,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -14232,7 +14233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>131</v>
       </c>
@@ -14414,7 +14415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -14596,7 +14597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -14778,7 +14779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>131</v>
       </c>
@@ -14960,7 +14961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -15142,7 +15143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -15333,13 +15334,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE142F5-64D0-4F45-B959-4454907C888C}">
   <dimension ref="A1:AW48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15350,7 +15351,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1977</v>
       </c>
@@ -15361,7 +15362,7 @@
         <v>9449.0400000000009</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1978</v>
       </c>
@@ -15418,7 +15419,7 @@
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1979</v>
       </c>
@@ -15429,7 +15430,7 @@
         <v>7579.03</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1980</v>
       </c>
@@ -15440,7 +15441,7 @@
         <v>7848.04</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1981</v>
       </c>
@@ -15451,7 +15452,7 @@
         <v>7433.04</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1982</v>
       </c>
@@ -15462,7 +15463,7 @@
         <v>4639.01</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1983</v>
       </c>
@@ -15473,7 +15474,7 @@
         <v>6331.03</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1984</v>
       </c>
@@ -15484,7 +15485,7 @@
         <v>3457.02</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1985</v>
       </c>
@@ -15495,7 +15496,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1986</v>
       </c>
@@ -15506,7 +15507,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1987</v>
       </c>
@@ -15517,7 +15518,7 @@
         <v>4962.97</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1988</v>
       </c>
@@ -15528,7 +15529,7 @@
         <v>5137.96</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1989</v>
       </c>
@@ -15539,7 +15540,7 @@
         <v>2583.9899999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1990</v>
       </c>
@@ -15550,7 +15551,7 @@
         <v>7705.98</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1991</v>
       </c>
@@ -15561,7 +15562,7 @@
         <v>17387.900000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -15572,7 +15573,7 @@
         <v>21915.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -15583,7 +15584,7 @@
         <v>19078</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1994</v>
       </c>
@@ -15594,7 +15595,7 @@
         <v>22917.9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1995</v>
       </c>
@@ -15605,7 +15606,7 @@
         <v>18278.900000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1996</v>
       </c>
@@ -15616,7 +15617,7 @@
         <v>22484.2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1997</v>
       </c>
@@ -15627,7 +15628,7 @@
         <v>16363.1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -15638,7 +15639,7 @@
         <v>12958.1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1999</v>
       </c>
@@ -15649,7 +15650,7 @@
         <v>16141.7</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -15660,7 +15661,7 @@
         <v>24210.3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2001</v>
       </c>
@@ -15671,7 +15672,7 @@
         <v>19925.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -15682,7 +15683,7 @@
         <v>21212.400000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2003</v>
       </c>
@@ -15693,7 +15694,7 @@
         <v>30254.1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2004</v>
       </c>
@@ -15704,7 +15705,7 @@
         <v>15758</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -15715,7 +15716,7 @@
         <v>19989.3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2006</v>
       </c>
@@ -15726,7 +15727,7 @@
         <v>27739.7</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2007</v>
       </c>
@@ -15737,7 +15738,7 @@
         <v>25509.1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2008</v>
       </c>
@@ -15748,7 +15749,7 @@
         <v>29271.4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2009</v>
       </c>
@@ -15759,7 +15760,7 @@
         <v>24913.1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2010</v>
       </c>
@@ -15770,7 +15771,7 @@
         <v>24497.1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -15781,7 +15782,7 @@
         <v>30961.200000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2012</v>
       </c>
@@ -15792,7 +15793,7 @@
         <v>20616</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2013</v>
       </c>
@@ -15803,7 +15804,7 @@
         <v>21536.799999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2014</v>
       </c>
@@ -15814,7 +15815,7 @@
         <v>36313.599999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -15825,7 +15826,7 @@
         <v>19084.400000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -15836,7 +15837,7 @@
         <v>19820.599999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -15847,7 +15848,7 @@
         <v>26905.5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -15858,7 +15859,7 @@
         <v>18833.7</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -15869,7 +15870,7 @@
         <v>24581.200000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -15880,7 +15881,7 @@
         <v>21122.1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -15891,7 +15892,7 @@
         <v>9988.41</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -15902,7 +15903,7 @@
         <v>11631</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -15926,9 +15927,9 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -15942,7 +15943,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.4710899999999996E-3</v>
       </c>
@@ -15956,7 +15957,7 @@
         <v>3.3764700000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.1901800000000001E-2</v>
       </c>
@@ -15970,7 +15971,7 @@
         <v>0.159807</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.0813299999999998E-2</v>
       </c>
@@ -15984,7 +15985,7 @@
         <v>0.50866599999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7.3560899999999999E-2</v>
       </c>
@@ -15998,7 +15999,7 @@
         <v>0.84928400000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.154139</v>
       </c>
@@ -16012,7 +16013,7 @@
         <v>0.96842600000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.28117399999999998</v>
       </c>
@@ -16026,7 +16027,7 @@
         <v>0.99404599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.45882299999999998</v>
       </c>
@@ -16040,7 +16041,7 @@
         <v>0.99890100000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.67904600000000004</v>
       </c>
@@ -16054,7 +16055,7 @@
         <v>0.99979799999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.88109999999999999</v>
       </c>
@@ -16068,7 +16069,7 @@
         <v>0.99996300000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.97401000000000004</v>
       </c>
@@ -16082,7 +16083,7 @@
         <v>0.99999300000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.969808</v>
       </c>
@@ -16096,7 +16097,7 @@
         <v>0.99999899999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.95575900000000003</v>
       </c>
@@ -16110,7 +16111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.93799900000000003</v>
       </c>
@@ -16124,7 +16125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.91908900000000004</v>
       </c>
@@ -16138,7 +16139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.90079799999999999</v>
       </c>
@@ -16152,7 +16153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.88379099999999999</v>
       </c>
@@ -16166,7 +16167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.86850499999999997</v>
       </c>
@@ -16180,7 +16181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.85483600000000004</v>
       </c>
@@ -16194,7 +16195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.84284000000000003</v>
       </c>
@@ -16208,7 +16209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.84284000000000003</v>
       </c>
@@ -16222,7 +16223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.84284000000000003</v>
       </c>
@@ -16234,6 +16235,740 @@
       </c>
       <c r="D22">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA3F8D-107B-435D-85B7-C62AB9736DED}">
+  <dimension ref="A1:BA48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1977</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1231640</v>
+      </c>
+      <c r="C2" s="1">
+        <v>732097</v>
+      </c>
+      <c r="D2" s="1">
+        <v>600780000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1978</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1221440</v>
+      </c>
+      <c r="C3" s="1">
+        <v>725700</v>
+      </c>
+      <c r="D3" s="1">
+        <v>641720000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1979</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1219300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>717993</v>
+      </c>
+      <c r="D4" s="1">
+        <v>706407000</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1980</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1219120</v>
+      </c>
+      <c r="C5" s="1">
+        <v>709296</v>
+      </c>
+      <c r="D5" s="1">
+        <v>625524000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1981</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1215990</v>
+      </c>
+      <c r="C6" s="1">
+        <v>699284</v>
+      </c>
+      <c r="D6" s="1">
+        <v>545618000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1982</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1210410</v>
+      </c>
+      <c r="C7" s="1">
+        <v>690597</v>
+      </c>
+      <c r="D7" s="1">
+        <v>523016000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1983</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1208670</v>
+      </c>
+      <c r="C8" s="1">
+        <v>687868</v>
+      </c>
+      <c r="D8" s="1">
+        <v>590097000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1984</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1216860</v>
+      </c>
+      <c r="C9" s="1">
+        <v>688516</v>
+      </c>
+      <c r="D9" s="1">
+        <v>815819000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1985</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1254820</v>
+      </c>
+      <c r="C10" s="1">
+        <v>694819</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1193280000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1986</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1309800</v>
+      </c>
+      <c r="C11" s="1">
+        <v>702174</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1128640000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1987</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1375350</v>
+      </c>
+      <c r="C12" s="1">
+        <v>705764</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1085870000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1988</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1445950</v>
+      </c>
+      <c r="C13" s="1">
+        <v>703953</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1130780000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1989</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1516480</v>
+      </c>
+      <c r="C14" s="1">
+        <v>707453</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1043310000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1990</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1581460</v>
+      </c>
+      <c r="C15" s="1">
+        <v>728370</v>
+      </c>
+      <c r="D15" s="1">
+        <v>910950000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1991</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1634680</v>
+      </c>
+      <c r="C16" s="1">
+        <v>764725</v>
+      </c>
+      <c r="D16" s="1">
+        <v>948296000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1992</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1671040</v>
+      </c>
+      <c r="C17" s="1">
+        <v>806400</v>
+      </c>
+      <c r="D17" s="1">
+        <v>944534000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1993</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1686870</v>
+      </c>
+      <c r="C18" s="1">
+        <v>846735</v>
+      </c>
+      <c r="D18" s="1">
+        <v>744599000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1994</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1694130</v>
+      </c>
+      <c r="C19" s="1">
+        <v>886486</v>
+      </c>
+      <c r="D19" s="1">
+        <v>734478000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1995</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1690590</v>
+      </c>
+      <c r="C20" s="1">
+        <v>916642</v>
+      </c>
+      <c r="D20" s="1">
+        <v>789498000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1996</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1685320</v>
+      </c>
+      <c r="C21" s="1">
+        <v>941332</v>
+      </c>
+      <c r="D21" s="1">
+        <v>768469000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1997</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1679800</v>
+      </c>
+      <c r="C22" s="1">
+        <v>954485</v>
+      </c>
+      <c r="D22" s="1">
+        <v>929790000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1998</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1696960</v>
+      </c>
+      <c r="C23" s="1">
+        <v>965842</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1196990000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1999</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1733510</v>
+      </c>
+      <c r="C24" s="1">
+        <v>970795</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1293470000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2000</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1797070</v>
+      </c>
+      <c r="C25" s="1">
+        <v>964397</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1653270000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2001</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1842760</v>
+      </c>
+      <c r="C26" s="1">
+        <v>948808</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1075310000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2002</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1884900</v>
+      </c>
+      <c r="C27" s="1">
+        <v>940853</v>
+      </c>
+      <c r="D27" s="1">
+        <v>968251000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2003</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1912460</v>
+      </c>
+      <c r="C28" s="1">
+        <v>942759</v>
+      </c>
+      <c r="D28" s="1">
+        <v>885333000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2004</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1921090</v>
+      </c>
+      <c r="C29" s="1">
+        <v>955425</v>
+      </c>
+      <c r="D29" s="1">
+        <v>916966000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2005</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1938350</v>
+      </c>
+      <c r="C30" s="1">
+        <v>999117</v>
+      </c>
+      <c r="D30" s="1">
+        <v>950670000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2006</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1939990</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1048390</v>
+      </c>
+      <c r="D31" s="1">
+        <v>880351000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2007</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1914480</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1082140</v>
+      </c>
+      <c r="D32" s="1">
+        <v>649431000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2008</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1878300</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1097230</v>
+      </c>
+      <c r="D33" s="1">
+        <v>624656000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2009</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1819940</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1093150</v>
+      </c>
+      <c r="D34" s="1">
+        <v>468129000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2010</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1753930</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1084960</v>
+      </c>
+      <c r="D35" s="1">
+        <v>457736000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2011</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1687170</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1073700</v>
+      </c>
+      <c r="D36" s="1">
+        <v>584849000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2012</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1619140</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1050800</v>
+      </c>
+      <c r="D37" s="1">
+        <v>689014000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2013</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1568030</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1025530</v>
+      </c>
+      <c r="D38" s="1">
+        <v>700950000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2014</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1516180</v>
+      </c>
+      <c r="C39" s="1">
+        <v>987968</v>
+      </c>
+      <c r="D39" s="1">
+        <v>571774000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2015</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1449000</v>
+      </c>
+      <c r="C40" s="1">
+        <v>929376</v>
+      </c>
+      <c r="D40" s="1">
+        <v>505884000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2016</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1404870</v>
+      </c>
+      <c r="C41" s="1">
+        <v>884077</v>
+      </c>
+      <c r="D41" s="1">
+        <v>578368000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2017</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1366370</v>
+      </c>
+      <c r="C42" s="1">
+        <v>844001</v>
+      </c>
+      <c r="D42" s="1">
+        <v>632992000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2018</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1338260</v>
+      </c>
+      <c r="C43" s="1">
+        <v>807968</v>
+      </c>
+      <c r="D43" s="1">
+        <v>856700000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2019</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1315390</v>
+      </c>
+      <c r="C44" s="1">
+        <v>785828</v>
+      </c>
+      <c r="D44" s="1">
+        <v>555772000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2020</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1293700</v>
+      </c>
+      <c r="C45" s="1">
+        <v>759757</v>
+      </c>
+      <c r="D45" s="1">
+        <v>661233000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2021</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1279720</v>
+      </c>
+      <c r="C46" s="1">
+        <v>733359</v>
+      </c>
+      <c r="D46" s="1">
+        <v>707335000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2022</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1281620</v>
+      </c>
+      <c r="C47" s="1">
+        <v>719298</v>
+      </c>
+      <c r="D47" s="1">
+        <v>710551000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2023</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1270450</v>
+      </c>
+      <c r="C48" s="1">
+        <v>710935</v>
+      </c>
+      <c r="D48" s="1">
+        <v>436000000</v>
       </c>
     </row>
   </sheetData>

--- a/data/2023_SAFE_biomass_estimate.xlsx
+++ b/data/2023_SAFE_biomass_estimate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant Adams\Documents\GitHub\GOA-ATF-ESP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8169FAF0-2EEC-4EEF-B358-13A433A9153B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E884AC15-061F-419B-BAF4-FEEF4D51C0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2340" windowWidth="23775" windowHeight="12210" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="2505" windowWidth="23775" windowHeight="9645" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023 SAFE" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,21 @@
     <sheet name="2023 SAFE selectivity" sheetId="6" r:id="rId6"/>
     <sheet name="ADMB CEATTLE par" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1593,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT48"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16244,15 +16255,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA3F8D-107B-435D-85B7-C62AB9736DED}">
-  <dimension ref="A1:BA48"/>
+  <dimension ref="A1:AZ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16266,710 +16280,733 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1977</v>
       </c>
       <c r="B2" s="1">
-        <v>1231640</v>
+        <v>1116280</v>
       </c>
       <c r="C2" s="1">
-        <v>732097</v>
+        <v>663629</v>
       </c>
       <c r="D2" s="1">
-        <v>600780000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+        <v>552082000</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1978</v>
       </c>
       <c r="B3" s="1">
-        <v>1221440</v>
+        <v>1109810</v>
       </c>
       <c r="C3" s="1">
-        <v>725700</v>
+        <v>654783</v>
       </c>
       <c r="D3" s="1">
-        <v>641720000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+        <v>629128000</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1979</v>
       </c>
       <c r="B4" s="1">
-        <v>1219300</v>
+        <v>1112900</v>
       </c>
       <c r="C4" s="1">
-        <v>717993</v>
+        <v>646473</v>
       </c>
       <c r="D4" s="1">
-        <v>706407000</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+        <v>704271000</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1980</v>
       </c>
       <c r="B5" s="1">
-        <v>1219120</v>
+        <v>1121110</v>
       </c>
       <c r="C5" s="1">
-        <v>709296</v>
+        <v>638330</v>
       </c>
       <c r="D5" s="1">
-        <v>625524000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+        <v>665921000</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1981</v>
       </c>
       <c r="B6" s="1">
-        <v>1215990</v>
+        <v>1127980</v>
       </c>
       <c r="C6" s="1">
-        <v>699284</v>
+        <v>629942</v>
       </c>
       <c r="D6" s="1">
-        <v>545618000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+        <v>574355000</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1982</v>
       </c>
       <c r="B7" s="1">
-        <v>1210410</v>
+        <v>1133300</v>
       </c>
       <c r="C7" s="1">
-        <v>690597</v>
+        <v>623465</v>
       </c>
       <c r="D7" s="1">
-        <v>523016000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+        <v>546572000</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1983</v>
       </c>
       <c r="B8" s="1">
-        <v>1208670</v>
+        <v>1142750</v>
       </c>
       <c r="C8" s="1">
-        <v>687868</v>
+        <v>623287</v>
       </c>
       <c r="D8" s="1">
-        <v>590097000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+        <v>611661000</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1984</v>
       </c>
       <c r="B9" s="1">
-        <v>1216860</v>
+        <v>1162220</v>
       </c>
       <c r="C9" s="1">
-        <v>688516</v>
+        <v>627459</v>
       </c>
       <c r="D9" s="1">
-        <v>815819000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+        <v>841932000</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1985</v>
       </c>
       <c r="B10" s="1">
-        <v>1254820</v>
+        <v>1212470</v>
       </c>
       <c r="C10" s="1">
-        <v>694819</v>
+        <v>639359</v>
       </c>
       <c r="D10" s="1">
-        <v>1193280000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+        <v>1237940000</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1986</v>
       </c>
       <c r="B11" s="1">
-        <v>1309800</v>
+        <v>1280810</v>
       </c>
       <c r="C11" s="1">
-        <v>702174</v>
+        <v>654070</v>
       </c>
       <c r="D11" s="1">
-        <v>1128640000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+        <v>1194520000</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1987</v>
       </c>
       <c r="B12" s="1">
-        <v>1375350</v>
+        <v>1359070</v>
       </c>
       <c r="C12" s="1">
-        <v>705764</v>
+        <v>665914</v>
       </c>
       <c r="D12" s="1">
-        <v>1085870000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+        <v>1130460000</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1988</v>
       </c>
       <c r="B13" s="1">
-        <v>1445950</v>
+        <v>1439900</v>
       </c>
       <c r="C13" s="1">
-        <v>703953</v>
+        <v>672254</v>
       </c>
       <c r="D13" s="1">
-        <v>1130780000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+        <v>1135930000</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1989</v>
       </c>
       <c r="B14" s="1">
-        <v>1516480</v>
+        <v>1518720</v>
       </c>
       <c r="C14" s="1">
-        <v>707453</v>
+        <v>683194</v>
       </c>
       <c r="D14" s="1">
-        <v>1043310000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+        <v>1052700000</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1990</v>
       </c>
       <c r="B15" s="1">
-        <v>1581460</v>
+        <v>1588960</v>
       </c>
       <c r="C15" s="1">
-        <v>728370</v>
+        <v>711093</v>
       </c>
       <c r="D15" s="1">
-        <v>910950000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+        <v>900815000</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1991</v>
       </c>
       <c r="B16" s="1">
-        <v>1634680</v>
+        <v>1647120</v>
       </c>
       <c r="C16" s="1">
-        <v>764725</v>
+        <v>755277</v>
       </c>
       <c r="D16" s="1">
-        <v>948296000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>965788000</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1992</v>
       </c>
       <c r="B17" s="1">
-        <v>1671040</v>
+        <v>1686450</v>
       </c>
       <c r="C17" s="1">
-        <v>806400</v>
+        <v>805153</v>
       </c>
       <c r="D17" s="1">
-        <v>944534000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>941991000</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1993</v>
       </c>
       <c r="B18" s="1">
-        <v>1686870</v>
+        <v>1704570</v>
       </c>
       <c r="C18" s="1">
-        <v>846735</v>
+        <v>852559</v>
       </c>
       <c r="D18" s="1">
-        <v>744599000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>755979000</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1994</v>
       </c>
       <c r="B19" s="1">
-        <v>1694130</v>
+        <v>1713670</v>
       </c>
       <c r="C19" s="1">
-        <v>886486</v>
+        <v>896927</v>
       </c>
       <c r="D19" s="1">
-        <v>734478000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>748876000</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1995</v>
       </c>
       <c r="B20" s="1">
-        <v>1690590</v>
+        <v>1711620</v>
       </c>
       <c r="C20" s="1">
-        <v>916642</v>
+        <v>929326</v>
       </c>
       <c r="D20" s="1">
-        <v>789498000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>804283000</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1996</v>
       </c>
       <c r="B21" s="1">
-        <v>1685320</v>
+        <v>1707530</v>
       </c>
       <c r="C21" s="1">
-        <v>941332</v>
+        <v>954797</v>
       </c>
       <c r="D21" s="1">
-        <v>768469000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>781478000</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1997</v>
       </c>
       <c r="B22" s="1">
-        <v>1679800</v>
+        <v>1703180</v>
       </c>
       <c r="C22" s="1">
-        <v>954485</v>
+        <v>968094</v>
       </c>
       <c r="D22" s="1">
-        <v>929790000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>948546000</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1998</v>
       </c>
       <c r="B23" s="1">
-        <v>1696960</v>
+        <v>1722050</v>
       </c>
       <c r="C23" s="1">
-        <v>965842</v>
+        <v>979539</v>
       </c>
       <c r="D23" s="1">
-        <v>1196990000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1223990000</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1999</v>
       </c>
       <c r="B24" s="1">
-        <v>1733510</v>
+        <v>1760430</v>
       </c>
       <c r="C24" s="1">
-        <v>970795</v>
+        <v>984532</v>
       </c>
       <c r="D24" s="1">
-        <v>1293470000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1317730000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2000</v>
       </c>
       <c r="B25" s="1">
-        <v>1797070</v>
+        <v>1825830</v>
       </c>
       <c r="C25" s="1">
-        <v>964397</v>
+        <v>978498</v>
       </c>
       <c r="D25" s="1">
-        <v>1653270000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1673490000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2001</v>
       </c>
       <c r="B26" s="1">
-        <v>1842760</v>
+        <v>1872940</v>
       </c>
       <c r="C26" s="1">
-        <v>948808</v>
+        <v>963368</v>
       </c>
       <c r="D26" s="1">
-        <v>1075310000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1090930000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
       <c r="B27" s="1">
-        <v>1884900</v>
+        <v>1915990</v>
       </c>
       <c r="C27" s="1">
-        <v>940853</v>
+        <v>955885</v>
       </c>
       <c r="D27" s="1">
-        <v>968251000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>980888000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2003</v>
       </c>
       <c r="B28" s="1">
-        <v>1912460</v>
+        <v>1944110</v>
       </c>
       <c r="C28" s="1">
-        <v>942759</v>
+        <v>958495</v>
       </c>
       <c r="D28" s="1">
-        <v>885333000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>898438000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2004</v>
       </c>
       <c r="B29" s="1">
-        <v>1921090</v>
+        <v>1953850</v>
       </c>
       <c r="C29" s="1">
-        <v>955425</v>
+        <v>972283</v>
       </c>
       <c r="D29" s="1">
-        <v>916966000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>945596000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2005</v>
       </c>
       <c r="B30" s="1">
-        <v>1938350</v>
+        <v>1971670</v>
       </c>
       <c r="C30" s="1">
-        <v>999117</v>
+        <v>1017170</v>
       </c>
       <c r="D30" s="1">
-        <v>950670000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>963776000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2006</v>
       </c>
       <c r="B31" s="1">
-        <v>1939990</v>
+        <v>1974060</v>
       </c>
       <c r="C31" s="1">
-        <v>1048390</v>
+        <v>1067450</v>
       </c>
       <c r="D31" s="1">
-        <v>880351000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>901356000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2007</v>
       </c>
       <c r="B32" s="1">
-        <v>1914480</v>
+        <v>1948590</v>
       </c>
       <c r="C32" s="1">
-        <v>1082140</v>
+        <v>1101730</v>
       </c>
       <c r="D32" s="1">
-        <v>649431000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>657857000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2008</v>
       </c>
       <c r="B33" s="1">
-        <v>1878300</v>
+        <v>1911700</v>
       </c>
       <c r="C33" s="1">
-        <v>1097230</v>
+        <v>1116820</v>
       </c>
       <c r="D33" s="1">
-        <v>624656000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>629211000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2009</v>
       </c>
       <c r="B34" s="1">
-        <v>1819940</v>
+        <v>1852080</v>
       </c>
       <c r="C34" s="1">
-        <v>1093150</v>
+        <v>1112700</v>
       </c>
       <c r="D34" s="1">
-        <v>468129000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>469784000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2010</v>
       </c>
       <c r="B35" s="1">
-        <v>1753930</v>
+        <v>1784290</v>
       </c>
       <c r="C35" s="1">
-        <v>1084960</v>
+        <v>1104620</v>
       </c>
       <c r="D35" s="1">
-        <v>457736000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>458856000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
       <c r="B36" s="1">
-        <v>1687170</v>
+        <v>1715490</v>
       </c>
       <c r="C36" s="1">
-        <v>1073700</v>
+        <v>1093620</v>
       </c>
       <c r="D36" s="1">
-        <v>584849000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>585089000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2012</v>
       </c>
       <c r="B37" s="1">
-        <v>1619140</v>
+        <v>1645110</v>
       </c>
       <c r="C37" s="1">
-        <v>1050800</v>
+        <v>1070520</v>
       </c>
       <c r="D37" s="1">
-        <v>689014000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>692029000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2013</v>
       </c>
       <c r="B38" s="1">
-        <v>1568030</v>
+        <v>1591340</v>
       </c>
       <c r="C38" s="1">
-        <v>1025530</v>
+        <v>1044590</v>
       </c>
       <c r="D38" s="1">
-        <v>700950000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>698914000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2014</v>
       </c>
       <c r="B39" s="1">
-        <v>1516180</v>
+        <v>1536590</v>
       </c>
       <c r="C39" s="1">
-        <v>987968</v>
+        <v>1005700</v>
       </c>
       <c r="D39" s="1">
-        <v>571774000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>569266000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
       <c r="B40" s="1">
-        <v>1449000</v>
+        <v>1466590</v>
       </c>
       <c r="C40" s="1">
-        <v>929376</v>
+        <v>945490</v>
       </c>
       <c r="D40" s="1">
-        <v>505884000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>502817000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2016</v>
       </c>
       <c r="B41" s="1">
-        <v>1404870</v>
+        <v>1419570</v>
       </c>
       <c r="C41" s="1">
-        <v>884077</v>
+        <v>898322</v>
       </c>
       <c r="D41" s="1">
-        <v>578368000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>573959000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2017</v>
       </c>
       <c r="B42" s="1">
-        <v>1366370</v>
+        <v>1378200</v>
       </c>
       <c r="C42" s="1">
-        <v>844001</v>
+        <v>856489</v>
       </c>
       <c r="D42" s="1">
-        <v>632992000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>625645000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2018</v>
       </c>
       <c r="B43" s="1">
-        <v>1338260</v>
+        <v>1347040</v>
       </c>
       <c r="C43" s="1">
-        <v>807968</v>
+        <v>818856</v>
       </c>
       <c r="D43" s="1">
-        <v>856700000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>844390000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2019</v>
       </c>
       <c r="B44" s="1">
-        <v>1315390</v>
+        <v>1321160</v>
       </c>
       <c r="C44" s="1">
-        <v>785828</v>
+        <v>795180</v>
       </c>
       <c r="D44" s="1">
-        <v>555772000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>544636000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2020</v>
       </c>
       <c r="B45" s="1">
-        <v>1293700</v>
+        <v>1296420</v>
       </c>
       <c r="C45" s="1">
-        <v>759757</v>
+        <v>767585</v>
       </c>
       <c r="D45" s="1">
-        <v>661233000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>648490000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2021</v>
       </c>
       <c r="B46" s="1">
-        <v>1279720</v>
+        <v>1279550</v>
       </c>
       <c r="C46" s="1">
-        <v>733359</v>
+        <v>739583</v>
       </c>
       <c r="D46" s="1">
-        <v>707335000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>697959000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
       <c r="B47" s="1">
-        <v>1281620</v>
+        <v>1278770</v>
       </c>
       <c r="C47" s="1">
-        <v>719298</v>
+        <v>723924</v>
       </c>
       <c r="D47" s="1">
-        <v>710551000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>699896000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2023</v>
       </c>
       <c r="B48" s="1">
-        <v>1270450</v>
+        <v>1265700</v>
       </c>
       <c r="C48" s="1">
-        <v>710935</v>
+        <v>713886</v>
       </c>
       <c r="D48" s="1">
         <v>436000000</v>
       </c>
+      <c r="E48" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/2023_SAFE_biomass_estimate.xlsx
+++ b/data/2023_SAFE_biomass_estimate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant Adams\Documents\GitHub\GOA-ATF-ESP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E884AC15-061F-419B-BAF4-FEEF4D51C0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E73A7C6-B056-4910-99EB-604630A58BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="2505" windowWidth="23775" windowHeight="9645" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="2505" windowWidth="23775" windowHeight="9645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023 SAFE" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="139">
   <si>
     <t>Year</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Recruitment</t>
-  </si>
-  <si>
-    <t>Catch</t>
   </si>
   <si>
     <t>Fleet_name</t>
@@ -457,6 +454,12 @@
   <si>
     <t>Pred catch</t>
   </si>
+  <si>
+    <t>PredSrv</t>
+  </si>
+  <si>
+    <t>PredCatch</t>
+  </si>
 </sst>
 </file>
 
@@ -831,7 +834,7 @@
   <dimension ref="A1:BA48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D48"/>
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -849,6 +852,12 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -863,6 +872,12 @@
       <c r="D2" s="1">
         <v>582422000</v>
       </c>
+      <c r="E2" s="1">
+        <v>1121760</v>
+      </c>
+      <c r="F2">
+        <v>9449.0400000000009</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
@@ -878,6 +893,12 @@
       <c r="D3" s="1">
         <v>641301000</v>
       </c>
+      <c r="E3" s="1">
+        <v>1107720</v>
+      </c>
+      <c r="F3">
+        <v>8409.0300000000007</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
@@ -893,6 +914,12 @@
       <c r="D4" s="1">
         <v>691238000</v>
       </c>
+      <c r="E4" s="1">
+        <v>1097440</v>
+      </c>
+      <c r="F4">
+        <v>7579.03</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
@@ -908,6 +935,12 @@
       <c r="D5" s="1">
         <v>636382000</v>
       </c>
+      <c r="E5" s="1">
+        <v>1093700</v>
+      </c>
+      <c r="F5">
+        <v>7848.04</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.25">
@@ -923,6 +956,12 @@
       <c r="D6" s="1">
         <v>546052000</v>
       </c>
+      <c r="E6" s="1">
+        <v>1095670</v>
+      </c>
+      <c r="F6">
+        <v>7433.04</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
@@ -938,6 +977,12 @@
       <c r="D7" s="1">
         <v>527652000</v>
       </c>
+      <c r="E7" s="1">
+        <v>1099390</v>
+      </c>
+      <c r="F7">
+        <v>4639.01</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
@@ -953,6 +998,12 @@
       <c r="D8" s="1">
         <v>596923000</v>
       </c>
+      <c r="E8" s="1">
+        <v>1101300</v>
+      </c>
+      <c r="F8">
+        <v>6331.03</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
@@ -968,6 +1019,12 @@
       <c r="D9" s="1">
         <v>813719000</v>
       </c>
+      <c r="E9" s="1">
+        <v>1096850</v>
+      </c>
+      <c r="F9">
+        <v>3457.02</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
@@ -982,6 +1039,12 @@
       </c>
       <c r="D10" s="1">
         <v>1187350000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1098900</v>
+      </c>
+      <c r="F10">
+        <v>1539</v>
       </c>
       <c r="H10" s="1"/>
       <c r="L10" s="1"/>
@@ -1040,6 +1103,12 @@
       <c r="D11" s="1">
         <v>1152620000</v>
       </c>
+      <c r="E11" s="1">
+        <v>1119820</v>
+      </c>
+      <c r="F11">
+        <v>1221</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.25">
@@ -1055,6 +1124,12 @@
       <c r="D12" s="1">
         <v>1104260000</v>
       </c>
+      <c r="E12" s="1">
+        <v>1169730</v>
+      </c>
+      <c r="F12">
+        <v>4962.97</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.25">
@@ -1070,6 +1145,12 @@
       <c r="D13" s="1">
         <v>1124720000</v>
       </c>
+      <c r="E13" s="1">
+        <v>1238350</v>
+      </c>
+      <c r="F13">
+        <v>5137.96</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.25">
@@ -1085,6 +1166,12 @@
       <c r="D14" s="1">
         <v>1055280000</v>
       </c>
+      <c r="E14" s="1">
+        <v>1313700</v>
+      </c>
+      <c r="F14">
+        <v>2583.9899999999998</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.25">
@@ -1100,6 +1187,12 @@
       <c r="D15" s="1">
         <v>905194000</v>
       </c>
+      <c r="E15" s="1">
+        <v>1390770</v>
+      </c>
+      <c r="F15">
+        <v>7705.98</v>
+      </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.25">
@@ -1115,6 +1208,12 @@
       <c r="D16" s="1">
         <v>964090000</v>
       </c>
+      <c r="E16" s="1">
+        <v>1455830</v>
+      </c>
+      <c r="F16">
+        <v>17387.900000000001</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1130,6 +1229,12 @@
       <c r="D17" s="1">
         <v>930378000</v>
       </c>
+      <c r="E17" s="1">
+        <v>1498300</v>
+      </c>
+      <c r="F17">
+        <v>21915.8</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1145,6 +1250,12 @@
       <c r="D18" s="1">
         <v>743926000</v>
       </c>
+      <c r="E18" s="1">
+        <v>1525370</v>
+      </c>
+      <c r="F18">
+        <v>19078</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1160,6 +1271,12 @@
       <c r="D19" s="1">
         <v>734358000</v>
       </c>
+      <c r="E19" s="1">
+        <v>1546720</v>
+      </c>
+      <c r="F19">
+        <v>22917.9</v>
+      </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1175,6 +1292,12 @@
       <c r="D20" s="1">
         <v>787372000</v>
       </c>
+      <c r="E20" s="1">
+        <v>1550130</v>
+      </c>
+      <c r="F20">
+        <v>18278.900000000001</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1190,6 +1313,12 @@
       <c r="D21" s="1">
         <v>765874000</v>
       </c>
+      <c r="E21" s="1">
+        <v>1545130</v>
+      </c>
+      <c r="F21">
+        <v>22484.2</v>
+      </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1205,6 +1334,12 @@
       <c r="D22" s="1">
         <v>930586000</v>
       </c>
+      <c r="E22" s="1">
+        <v>1530300</v>
+      </c>
+      <c r="F22">
+        <v>16363.1</v>
+      </c>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1220,6 +1355,12 @@
       <c r="D23" s="1">
         <v>1203590000</v>
       </c>
+      <c r="E23" s="1">
+        <v>1522600</v>
+      </c>
+      <c r="F23">
+        <v>12958.1</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1235,6 +1376,12 @@
       <c r="D24" s="1">
         <v>1303120000</v>
       </c>
+      <c r="E24" s="1">
+        <v>1527720</v>
+      </c>
+      <c r="F24">
+        <v>16141.7</v>
+      </c>
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1250,6 +1397,12 @@
       <c r="D25" s="1">
         <v>1656310000</v>
       </c>
+      <c r="E25" s="1">
+        <v>1550980</v>
+      </c>
+      <c r="F25">
+        <v>24210.3</v>
+      </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1265,6 +1418,12 @@
       <c r="D26" s="1">
         <v>1081590000</v>
       </c>
+      <c r="E26" s="1">
+        <v>1591680</v>
+      </c>
+      <c r="F26">
+        <v>19925.5</v>
+      </c>
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1280,6 +1439,12 @@
       <c r="D27" s="1">
         <v>972880000</v>
       </c>
+      <c r="E27" s="1">
+        <v>1658830</v>
+      </c>
+      <c r="F27">
+        <v>21212.400000000001</v>
+      </c>
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1295,6 +1460,12 @@
       <c r="D28" s="1">
         <v>888208000</v>
       </c>
+      <c r="E28" s="1">
+        <v>1720270</v>
+      </c>
+      <c r="F28">
+        <v>30254.1</v>
+      </c>
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1310,6 +1481,12 @@
       <c r="D29" s="1">
         <v>929757000</v>
       </c>
+      <c r="E29" s="1">
+        <v>1746760</v>
+      </c>
+      <c r="F29">
+        <v>15758</v>
+      </c>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1325,6 +1502,12 @@
       <c r="D30" s="1">
         <v>943956000</v>
       </c>
+      <c r="E30" s="1">
+        <v>1768170</v>
+      </c>
+      <c r="F30">
+        <v>19989.3</v>
+      </c>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1340,6 +1523,12 @@
       <c r="D31" s="1">
         <v>883188000</v>
       </c>
+      <c r="E31" s="1">
+        <v>1772100</v>
+      </c>
+      <c r="F31">
+        <v>27739.7</v>
+      </c>
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1355,6 +1544,12 @@
       <c r="D32" s="1">
         <v>646389000</v>
       </c>
+      <c r="E32" s="1">
+        <v>1761340</v>
+      </c>
+      <c r="F32">
+        <v>25509.1</v>
+      </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1370,6 +1565,12 @@
       <c r="D33" s="1">
         <v>618346000</v>
       </c>
+      <c r="E33" s="1">
+        <v>1744630</v>
+      </c>
+      <c r="F33">
+        <v>29271.4</v>
+      </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1385,6 +1586,12 @@
       <c r="D34" s="1">
         <v>462008000</v>
       </c>
+      <c r="E34" s="1">
+        <v>1707540</v>
+      </c>
+      <c r="F34">
+        <v>24913.1</v>
+      </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1400,6 +1607,12 @@
       <c r="D35" s="1">
         <v>451636000</v>
       </c>
+      <c r="E35" s="1">
+        <v>1656920</v>
+      </c>
+      <c r="F35">
+        <v>24497.1</v>
+      </c>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1415,6 +1628,12 @@
       <c r="D36" s="1">
         <v>578226000</v>
       </c>
+      <c r="E36" s="1">
+        <v>1592240</v>
+      </c>
+      <c r="F36">
+        <v>30961.200000000001</v>
+      </c>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1430,6 +1649,12 @@
       <c r="D37" s="1">
         <v>689346000</v>
       </c>
+      <c r="E37" s="1">
+        <v>1512220</v>
+      </c>
+      <c r="F37">
+        <v>20616</v>
+      </c>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1445,6 +1670,12 @@
       <c r="D38" s="1">
         <v>698348000</v>
       </c>
+      <c r="E38" s="1">
+        <v>1446620</v>
+      </c>
+      <c r="F38">
+        <v>21536.799999999999</v>
+      </c>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1460,6 +1691,12 @@
       <c r="D39" s="1">
         <v>570987000</v>
       </c>
+      <c r="E39" s="1">
+        <v>1392350</v>
+      </c>
+      <c r="F39">
+        <v>36313.599999999999</v>
+      </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1475,6 +1712,12 @@
       <c r="D40" s="1">
         <v>507349000</v>
       </c>
+      <c r="E40" s="1">
+        <v>1333880</v>
+      </c>
+      <c r="F40">
+        <v>19084.400000000001</v>
+      </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1490,6 +1733,12 @@
       <c r="D41" s="1">
         <v>582864000</v>
       </c>
+      <c r="E41" s="1">
+        <v>1295850</v>
+      </c>
+      <c r="F41">
+        <v>19820.599999999999</v>
+      </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,6 +1754,12 @@
       <c r="D42" s="1">
         <v>637558000</v>
       </c>
+      <c r="E42" s="1">
+        <v>1254780</v>
+      </c>
+      <c r="F42">
+        <v>26905.5</v>
+      </c>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1520,6 +1775,12 @@
       <c r="D43" s="1">
         <v>869022000</v>
       </c>
+      <c r="E43" s="1">
+        <v>1210000</v>
+      </c>
+      <c r="F43">
+        <v>18833.7</v>
+      </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1535,6 +1796,12 @@
       <c r="D44" s="1">
         <v>562924000</v>
       </c>
+      <c r="E44" s="1">
+        <v>1184000</v>
+      </c>
+      <c r="F44">
+        <v>24581.200000000001</v>
+      </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1550,6 +1817,12 @@
       <c r="D45" s="1">
         <v>670248000</v>
       </c>
+      <c r="E45" s="1">
+        <v>1166600</v>
+      </c>
+      <c r="F45">
+        <v>21122.1</v>
+      </c>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1565,6 +1838,12 @@
       <c r="D46" s="1">
         <v>713068000</v>
       </c>
+      <c r="E46" s="1">
+        <v>1155330</v>
+      </c>
+      <c r="F46">
+        <v>9988.41</v>
+      </c>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1580,6 +1859,12 @@
       <c r="D47" s="1">
         <v>714778000</v>
       </c>
+      <c r="E47" s="1">
+        <v>1154120</v>
+      </c>
+      <c r="F47">
+        <v>11631</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -1593,6 +1878,12 @@
       </c>
       <c r="D48" s="1">
         <v>436000000</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1154520</v>
+      </c>
+      <c r="F48">
+        <v>9028.89</v>
       </c>
     </row>
   </sheetData>
@@ -1602,15 +1893,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AT48"/>
+  <dimension ref="A1:AR48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1977</v>
       </c>
@@ -1638,7 +1929,7 @@
         <v>605490000</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1978</v>
       </c>
@@ -1652,7 +1943,7 @@
         <v>682866000</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1979</v>
       </c>
@@ -1666,7 +1957,7 @@
         <v>745158000</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1980</v>
       </c>
@@ -1680,7 +1971,7 @@
         <v>674859000</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1981</v>
       </c>
@@ -1694,7 +1985,7 @@
         <v>568368000</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1982</v>
       </c>
@@ -1708,7 +1999,7 @@
         <v>549460000</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1983</v>
       </c>
@@ -1722,7 +2013,7 @@
         <v>625398000</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1984</v>
       </c>
@@ -1736,7 +2027,7 @@
         <v>864931000</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1985</v>
       </c>
@@ -1750,7 +2041,7 @@
         <v>1222700000</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1986</v>
       </c>
@@ -1764,7 +2055,7 @@
         <v>1084360000</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1987</v>
       </c>
@@ -1777,6 +2068,8 @@
       <c r="D12" s="1">
         <v>1023850000</v>
       </c>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
@@ -1784,10 +2077,8 @@
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1988</v>
       </c>
@@ -1801,7 +2092,7 @@
         <v>1091420000</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1989</v>
       </c>
@@ -1815,7 +2106,7 @@
         <v>1048170000</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1990</v>
       </c>
@@ -1829,7 +2120,7 @@
         <v>897513000</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1991</v>
       </c>
@@ -1843,7 +2134,7 @@
         <v>968279000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -1857,7 +2148,7 @@
         <v>925601000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -1871,7 +2162,7 @@
         <v>728317000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1994</v>
       </c>
@@ -1885,7 +2176,7 @@
         <v>725103000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1995</v>
       </c>
@@ -1899,7 +2190,7 @@
         <v>777965000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1996</v>
       </c>
@@ -1913,7 +2204,7 @@
         <v>747685000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1997</v>
       </c>
@@ -1927,7 +2218,7 @@
         <v>893119000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -1941,7 +2232,7 @@
         <v>1112310000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1999</v>
       </c>
@@ -1955,7 +2246,7 @@
         <v>1201560000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -1969,7 +2260,7 @@
         <v>1548970000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2001</v>
       </c>
@@ -1983,7 +2274,7 @@
         <v>1038470000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -1997,7 +2288,7 @@
         <v>957958000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2003</v>
       </c>
@@ -2011,7 +2302,7 @@
         <v>885082000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2004</v>
       </c>
@@ -2025,7 +2316,7 @@
         <v>943005000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -2038,9 +2329,9 @@
       <c r="D30" s="1">
         <v>971863000</v>
       </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2006</v>
       </c>
@@ -2053,9 +2344,9 @@
       <c r="D31" s="1">
         <v>915541000</v>
       </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2007</v>
       </c>
@@ -2068,9 +2359,9 @@
       <c r="D32" s="1">
         <v>659264000</v>
       </c>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2008</v>
       </c>
@@ -2083,9 +2374,9 @@
       <c r="D33" s="1">
         <v>635300000</v>
       </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2009</v>
       </c>
@@ -2098,9 +2389,9 @@
       <c r="D34" s="1">
         <v>463503000</v>
       </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2010</v>
       </c>
@@ -2113,9 +2404,9 @@
       <c r="D35" s="1">
         <v>454812000</v>
       </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -2128,9 +2419,9 @@
       <c r="D36" s="1">
         <v>604662000</v>
       </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2012</v>
       </c>
@@ -2143,9 +2434,9 @@
       <c r="D37" s="1">
         <v>740392000</v>
       </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2013</v>
       </c>
@@ -2158,9 +2449,9 @@
       <c r="D38" s="1">
         <v>776235000</v>
       </c>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2014</v>
       </c>
@@ -2174,7 +2465,7 @@
         <v>638727000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -2188,7 +2479,7 @@
         <v>553546000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -2202,7 +2493,7 @@
         <v>632694000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -2216,7 +2507,7 @@
         <v>684799000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -2230,7 +2521,7 @@
         <v>964654000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -2244,7 +2535,7 @@
         <v>492254000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -2258,7 +2549,7 @@
         <v>644098000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -2272,7 +2563,7 @@
         <v>706796000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -2286,7 +2577,7 @@
         <v>711843000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -2310,10 +2601,13 @@
   <dimension ref="A1:BC57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:E48"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2329,7 +2623,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
@@ -2346,6 +2643,9 @@
         <v>600780000</v>
       </c>
       <c r="E2" s="1">
+        <v>1127960</v>
+      </c>
+      <c r="F2" s="1">
         <v>9448.42</v>
       </c>
     </row>
@@ -2363,6 +2663,9 @@
         <v>641720000</v>
       </c>
       <c r="E3" s="1">
+        <v>1111450</v>
+      </c>
+      <c r="F3" s="1">
         <v>8407.77</v>
       </c>
       <c r="G3" s="1"/>
@@ -2412,6 +2715,8 @@
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2427,6 +2732,9 @@
         <v>706407000</v>
       </c>
       <c r="E4" s="1">
+        <v>1100050</v>
+      </c>
+      <c r="F4" s="1">
         <v>7578.05</v>
       </c>
       <c r="H4" s="1"/>
@@ -2492,6 +2800,9 @@
         <v>625524000</v>
       </c>
       <c r="E5" s="1">
+        <v>1096410</v>
+      </c>
+      <c r="F5" s="1">
         <v>7846.81</v>
       </c>
       <c r="AJ5" s="1"/>
@@ -2517,6 +2828,9 @@
         <v>545618000</v>
       </c>
       <c r="E6" s="1">
+        <v>1098740</v>
+      </c>
+      <c r="F6" s="1">
         <v>7432.36</v>
       </c>
       <c r="AK6" s="1"/>
@@ -2542,6 +2856,9 @@
         <v>523016000</v>
       </c>
       <c r="E7" s="1">
+        <v>1102460</v>
+      </c>
+      <c r="F7" s="1">
         <v>4638.8900000000003</v>
       </c>
       <c r="G7" s="1"/>
@@ -2606,6 +2923,9 @@
         <v>590097000</v>
       </c>
       <c r="E8" s="1">
+        <v>1103850</v>
+      </c>
+      <c r="F8" s="1">
         <v>6329.97</v>
       </c>
       <c r="H8" s="1"/>
@@ -2670,6 +2990,9 @@
         <v>815819000</v>
       </c>
       <c r="E9" s="1">
+        <v>1098820</v>
+      </c>
+      <c r="F9" s="1">
         <v>3456.46</v>
       </c>
     </row>
@@ -2687,6 +3010,9 @@
         <v>1193280000</v>
       </c>
       <c r="E10" s="1">
+        <v>1099930</v>
+      </c>
+      <c r="F10" s="1">
         <v>1538.88</v>
       </c>
     </row>
@@ -2704,6 +3030,9 @@
         <v>1128640000</v>
       </c>
       <c r="E11" s="1">
+        <v>1120410</v>
+      </c>
+      <c r="F11" s="1">
         <v>1221.06</v>
       </c>
       <c r="I11" s="1"/>
@@ -2722,6 +3051,9 @@
         <v>1085870000</v>
       </c>
       <c r="E12" s="1">
+        <v>1170240</v>
+      </c>
+      <c r="F12" s="1">
         <v>4963.95</v>
       </c>
       <c r="I12" s="1"/>
@@ -2740,6 +3072,9 @@
         <v>1130780000</v>
       </c>
       <c r="E13" s="1">
+        <v>1237770</v>
+      </c>
+      <c r="F13" s="1">
         <v>5138.9799999999996</v>
       </c>
       <c r="I13" s="1"/>
@@ -2758,6 +3093,9 @@
         <v>1043310000</v>
       </c>
       <c r="E14" s="1">
+        <v>1311270</v>
+      </c>
+      <c r="F14" s="1">
         <v>2584.13</v>
       </c>
       <c r="I14" s="1"/>
@@ -2776,6 +3114,9 @@
         <v>910950000</v>
       </c>
       <c r="E15" s="1">
+        <v>1387270</v>
+      </c>
+      <c r="F15" s="1">
         <v>7705.64</v>
       </c>
       <c r="I15" s="1"/>
@@ -2794,6 +3135,9 @@
         <v>948296000</v>
       </c>
       <c r="E16" s="1">
+        <v>1451360</v>
+      </c>
+      <c r="F16" s="1">
         <v>17386.599999999999</v>
       </c>
       <c r="I16" s="1"/>
@@ -2812,6 +3156,9 @@
         <v>944534000</v>
       </c>
       <c r="E17" s="1">
+        <v>1493130</v>
+      </c>
+      <c r="F17" s="1">
         <v>21914.6</v>
       </c>
       <c r="I17" s="1"/>
@@ -2830,6 +3177,9 @@
         <v>744599000</v>
       </c>
       <c r="E18" s="1">
+        <v>1519820</v>
+      </c>
+      <c r="F18" s="1">
         <v>19076.8</v>
       </c>
       <c r="I18" s="1"/>
@@ -2848,6 +3198,9 @@
         <v>734478000</v>
       </c>
       <c r="E19" s="1">
+        <v>1541310</v>
+      </c>
+      <c r="F19" s="1">
         <v>22917.200000000001</v>
       </c>
       <c r="I19" s="1"/>
@@ -2866,6 +3219,9 @@
         <v>789498000</v>
       </c>
       <c r="E20" s="1">
+        <v>1545500</v>
+      </c>
+      <c r="F20" s="1">
         <v>18277.7</v>
       </c>
       <c r="I20" s="1"/>
@@ -2884,6 +3240,9 @@
         <v>768469000</v>
       </c>
       <c r="E21" s="1">
+        <v>1541230</v>
+      </c>
+      <c r="F21" s="1">
         <v>22482.799999999999</v>
       </c>
       <c r="I21" s="1"/>
@@ -2902,6 +3261,9 @@
         <v>929790000</v>
       </c>
       <c r="E22" s="1">
+        <v>1527270</v>
+      </c>
+      <c r="F22" s="1">
         <v>16363.7</v>
       </c>
       <c r="I22" s="1"/>
@@ -2920,6 +3282,9 @@
         <v>1196990000</v>
       </c>
       <c r="E23" s="1">
+        <v>1520380</v>
+      </c>
+      <c r="F23" s="1">
         <v>12960.1</v>
       </c>
       <c r="I23" s="1"/>
@@ -2938,6 +3303,9 @@
         <v>1293470000</v>
       </c>
       <c r="E24" s="1">
+        <v>1526170</v>
+      </c>
+      <c r="F24" s="1">
         <v>16145.6</v>
       </c>
       <c r="I24" s="1"/>
@@ -2956,6 +3324,9 @@
         <v>1653270000</v>
       </c>
       <c r="E25" s="1">
+        <v>1549590</v>
+      </c>
+      <c r="F25" s="1">
         <v>24214.1</v>
       </c>
       <c r="I25" s="1"/>
@@ -2974,6 +3345,9 @@
         <v>1075310000</v>
       </c>
       <c r="E26" s="1">
+        <v>1590050</v>
+      </c>
+      <c r="F26" s="1">
         <v>19927.900000000001</v>
       </c>
       <c r="I26" s="1"/>
@@ -2992,6 +3366,9 @@
         <v>968251000</v>
       </c>
       <c r="E27" s="1">
+        <v>1656830</v>
+      </c>
+      <c r="F27" s="1">
         <v>21214.6</v>
       </c>
       <c r="I27" s="1"/>
@@ -3010,6 +3387,9 @@
         <v>885333000</v>
       </c>
       <c r="E28" s="1">
+        <v>1717720</v>
+      </c>
+      <c r="F28" s="1">
         <v>30255.5</v>
       </c>
       <c r="I28" s="1"/>
@@ -3028,6 +3408,9 @@
         <v>916966000</v>
       </c>
       <c r="E29" s="1">
+        <v>1743630</v>
+      </c>
+      <c r="F29" s="1">
         <v>15757.8</v>
       </c>
       <c r="I29" s="1"/>
@@ -3046,6 +3429,9 @@
         <v>950670000</v>
       </c>
       <c r="E30" s="1">
+        <v>1764550</v>
+      </c>
+      <c r="F30" s="1">
         <v>19989.400000000001</v>
       </c>
       <c r="I30" s="1"/>
@@ -3064,6 +3450,9 @@
         <v>880351000</v>
       </c>
       <c r="E31" s="1">
+        <v>1767890</v>
+      </c>
+      <c r="F31" s="1">
         <v>27741.200000000001</v>
       </c>
       <c r="I31" s="1"/>
@@ -3082,6 +3471,9 @@
         <v>649431000</v>
       </c>
       <c r="E32" s="1">
+        <v>1756990</v>
+      </c>
+      <c r="F32" s="1">
         <v>25509.599999999999</v>
       </c>
       <c r="I32" s="1"/>
@@ -3100,6 +3492,9 @@
         <v>624656000</v>
       </c>
       <c r="E33" s="1">
+        <v>1740650</v>
+      </c>
+      <c r="F33" s="1">
         <v>29270.799999999999</v>
       </c>
       <c r="I33" s="1"/>
@@ -3118,6 +3513,9 @@
         <v>468129000</v>
       </c>
       <c r="E34" s="1">
+        <v>1704070</v>
+      </c>
+      <c r="F34" s="1">
         <v>24913.1</v>
       </c>
       <c r="I34" s="1"/>
@@ -3136,6 +3534,9 @@
         <v>457736000</v>
       </c>
       <c r="E35" s="1">
+        <v>1654410</v>
+      </c>
+      <c r="F35" s="1">
         <v>24498.1</v>
       </c>
       <c r="I35" s="1"/>
@@ -3154,6 +3555,9 @@
         <v>584849000</v>
       </c>
       <c r="E36" s="1">
+        <v>1590880</v>
+      </c>
+      <c r="F36" s="1">
         <v>30962.5</v>
       </c>
       <c r="I36" s="1"/>
@@ -3172,6 +3576,9 @@
         <v>689014000</v>
       </c>
       <c r="E37" s="1">
+        <v>1512260</v>
+      </c>
+      <c r="F37" s="1">
         <v>20615.7</v>
       </c>
       <c r="I37" s="1"/>
@@ -3190,6 +3597,9 @@
         <v>700950000</v>
       </c>
       <c r="E38" s="1">
+        <v>1447990</v>
+      </c>
+      <c r="F38" s="1">
         <v>21536.400000000001</v>
       </c>
       <c r="I38" s="1"/>
@@ -3208,6 +3618,9 @@
         <v>571774000</v>
       </c>
       <c r="E39" s="1">
+        <v>1394790</v>
+      </c>
+      <c r="F39" s="1">
         <v>36311.4</v>
       </c>
       <c r="I39" s="1"/>
@@ -3226,6 +3639,9 @@
         <v>505884000</v>
       </c>
       <c r="E40" s="1">
+        <v>1337060</v>
+      </c>
+      <c r="F40" s="1">
         <v>19082.8</v>
       </c>
       <c r="I40" s="1"/>
@@ -3245,6 +3661,9 @@
         <v>578368000</v>
       </c>
       <c r="E41" s="1">
+        <v>1299470</v>
+      </c>
+      <c r="F41" s="1">
         <v>19818.599999999999</v>
       </c>
       <c r="I41" s="1"/>
@@ -3264,6 +3683,9 @@
         <v>632992000</v>
       </c>
       <c r="E42" s="1">
+        <v>1258460</v>
+      </c>
+      <c r="F42" s="1">
         <v>26903.3</v>
       </c>
       <c r="I42" s="1"/>
@@ -3283,6 +3705,9 @@
         <v>856700000</v>
       </c>
       <c r="E43" s="1">
+        <v>1213410</v>
+      </c>
+      <c r="F43" s="1">
         <v>18832.5</v>
       </c>
       <c r="I43" s="1"/>
@@ -3302,6 +3727,9 @@
         <v>555772000</v>
       </c>
       <c r="E44" s="1">
+        <v>1186780</v>
+      </c>
+      <c r="F44" s="1">
         <v>24580.1</v>
       </c>
       <c r="I44" s="1"/>
@@ -3321,6 +3749,9 @@
         <v>661233000</v>
       </c>
       <c r="E45" s="1">
+        <v>1168370</v>
+      </c>
+      <c r="F45" s="1">
         <v>21120.2</v>
       </c>
       <c r="I45" s="1"/>
@@ -3340,6 +3771,9 @@
         <v>707335000</v>
       </c>
       <c r="E46" s="1">
+        <v>1155750</v>
+      </c>
+      <c r="F46" s="1">
         <v>9986.57</v>
       </c>
       <c r="I46" s="1"/>
@@ -3359,6 +3793,9 @@
         <v>710551000</v>
       </c>
       <c r="E47" s="1">
+        <v>1153200</v>
+      </c>
+      <c r="F47" s="1">
         <v>11627.6</v>
       </c>
       <c r="I47" s="1"/>
@@ -3377,7 +3814,10 @@
       <c r="D48" s="1">
         <v>436000000</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
+        <v>1152460</v>
+      </c>
+      <c r="F48" s="1">
         <v>9025.6299999999992</v>
       </c>
       <c r="I48" s="1"/>
@@ -3429,384 +3869,384 @@
   <sheetData>
     <row r="1" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BU1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CT1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CV1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="CW1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="CY1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="DA1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DB1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DC1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DD1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DE1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DF1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DG1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DH1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DI1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DJ1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DK1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DL1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DM1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DN1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="DN1" s="2" t="s">
+      <c r="DO1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="DO1" s="2" t="s">
+      <c r="DP1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DR1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DS1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DT1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DU1" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="DU1" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3958,7 +4398,7 @@
     </row>
     <row r="3" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4110,7 +4550,7 @@
     </row>
     <row r="4" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4262,7 +4702,7 @@
     </row>
     <row r="5" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4414,7 +4854,7 @@
     </row>
     <row r="6" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4566,7 +5006,7 @@
     </row>
     <row r="7" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4718,7 +5158,7 @@
     </row>
     <row r="8" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4870,7 +5310,7 @@
     </row>
     <row r="9" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5022,7 +5462,7 @@
     </row>
     <row r="10" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5174,7 +5614,7 @@
     </row>
     <row r="11" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5326,7 +5766,7 @@
     </row>
     <row r="12" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5478,7 +5918,7 @@
     </row>
     <row r="13" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5630,7 +6070,7 @@
     </row>
     <row r="14" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5782,7 +6222,7 @@
     </row>
     <row r="15" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5934,7 +6374,7 @@
     </row>
     <row r="16" spans="1:125" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -6086,7 +6526,7 @@
     </row>
     <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -6238,7 +6678,7 @@
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -6420,7 +6860,7 @@
     </row>
     <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -6602,7 +7042,7 @@
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -6784,7 +7224,7 @@
     </row>
     <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -6966,7 +7406,7 @@
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -7148,7 +7588,7 @@
     </row>
     <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -7330,7 +7770,7 @@
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -7512,7 +7952,7 @@
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -7694,7 +8134,7 @@
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -7876,7 +8316,7 @@
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -8058,7 +8498,7 @@
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -8240,7 +8680,7 @@
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -8422,7 +8862,7 @@
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -8604,7 +9044,7 @@
     </row>
     <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -8786,7 +9226,7 @@
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -8968,7 +9408,7 @@
     </row>
     <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -9150,7 +9590,7 @@
     </row>
     <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -9332,7 +9772,7 @@
     </row>
     <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -9514,7 +9954,7 @@
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -9696,7 +10136,7 @@
     </row>
     <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -9878,7 +10318,7 @@
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -10060,7 +10500,7 @@
     </row>
     <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -10242,7 +10682,7 @@
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -10424,7 +10864,7 @@
     </row>
     <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -10606,7 +11046,7 @@
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -10788,7 +11228,7 @@
     </row>
     <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -10970,7 +11410,7 @@
     </row>
     <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -11152,7 +11592,7 @@
     </row>
     <row r="45" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -11334,7 +11774,7 @@
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -11516,7 +11956,7 @@
     </row>
     <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -11698,7 +12138,7 @@
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -11880,7 +12320,7 @@
     </row>
     <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -12062,7 +12502,7 @@
     </row>
     <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -12244,7 +12684,7 @@
     </row>
     <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -12426,7 +12866,7 @@
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -12608,7 +13048,7 @@
     </row>
     <row r="53" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -12790,7 +13230,7 @@
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -12972,7 +13412,7 @@
     </row>
     <row r="55" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -13154,7 +13594,7 @@
     </row>
     <row r="56" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -13336,7 +13776,7 @@
     </row>
     <row r="57" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -13518,7 +13958,7 @@
     </row>
     <row r="58" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -13700,7 +14140,7 @@
     </row>
     <row r="59" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -13882,7 +14322,7 @@
     </row>
     <row r="60" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -14064,7 +14504,7 @@
     </row>
     <row r="61" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -14246,7 +14686,7 @@
     </row>
     <row r="62" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -14428,7 +14868,7 @@
     </row>
     <row r="63" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -14610,7 +15050,7 @@
     </row>
     <row r="64" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -14792,7 +15232,7 @@
     </row>
     <row r="65" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -14974,7 +15414,7 @@
     </row>
     <row r="66" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -15156,7 +15596,7 @@
     </row>
     <row r="67" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -15345,8 +15785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE142F5-64D0-4F45-B959-4454907C888C}">
   <dimension ref="A1:AW48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15356,10 +15796,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
@@ -15942,16 +16382,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
         <v>133</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>135</v>
-      </c>
-      <c r="D1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -16255,10 +16695,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDA3F8D-107B-435D-85B7-C62AB9736DED}">
-  <dimension ref="A1:AZ48"/>
+  <dimension ref="A1:BA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16266,7 +16706,7 @@
     <col min="5" max="5" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16279,8 +16719,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1977</v>
       </c>
@@ -16293,8 +16739,12 @@
       <c r="D2" s="1">
         <v>552082000</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="1">
+        <v>1019080</v>
+      </c>
+      <c r="F2">
+        <v>9467.08</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -16342,7 +16792,7 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1978</v>
       </c>
@@ -16355,9 +16805,17 @@
       <c r="D3" s="1">
         <v>629128000</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>1005370</v>
+      </c>
+      <c r="F3">
+        <v>8429.2199999999993</v>
+      </c>
+      <c r="BA3">
+        <v>9048.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1979</v>
       </c>
@@ -16370,9 +16828,14 @@
       <c r="D4" s="1">
         <v>704271000</v>
       </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>997056</v>
+      </c>
+      <c r="F4">
+        <v>7600.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1980</v>
       </c>
@@ -16385,9 +16848,14 @@
       <c r="D5" s="1">
         <v>665921000</v>
       </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>997470</v>
+      </c>
+      <c r="F5">
+        <v>7868.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1981</v>
       </c>
@@ -16400,9 +16868,14 @@
       <c r="D6" s="1">
         <v>574355000</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>1006390</v>
+      </c>
+      <c r="F6">
+        <v>7454.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1982</v>
       </c>
@@ -16415,9 +16888,14 @@
       <c r="D7" s="1">
         <v>546572000</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>1019680</v>
+      </c>
+      <c r="F7">
+        <v>4662.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1983</v>
       </c>
@@ -16430,9 +16908,14 @@
       <c r="D8" s="1">
         <v>611661000</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>1032580</v>
+      </c>
+      <c r="F8">
+        <v>6353.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1984</v>
       </c>
@@ -16445,9 +16928,14 @@
       <c r="D9" s="1">
         <v>841932000</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>1039070</v>
+      </c>
+      <c r="F9">
+        <v>3480.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1985</v>
       </c>
@@ -16460,9 +16948,14 @@
       <c r="D10" s="1">
         <v>1237940000</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>1051420</v>
+      </c>
+      <c r="F10">
+        <v>1555.63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1986</v>
       </c>
@@ -16475,9 +16968,14 @@
       <c r="D11" s="1">
         <v>1194520000</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>1082650</v>
+      </c>
+      <c r="F11">
+        <v>1235.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1987</v>
       </c>
@@ -16490,9 +16988,14 @@
       <c r="D12" s="1">
         <v>1130460000</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>1143560</v>
+      </c>
+      <c r="F12">
+        <v>4987.4399999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1988</v>
       </c>
@@ -16505,9 +17008,14 @@
       <c r="D13" s="1">
         <v>1135930000</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>1223230</v>
+      </c>
+      <c r="F13">
+        <v>5162.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1989</v>
       </c>
@@ -16520,9 +17028,14 @@
       <c r="D14" s="1">
         <v>1052700000</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>1308100</v>
+      </c>
+      <c r="F14">
+        <v>2605.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1990</v>
       </c>
@@ -16535,9 +17048,14 @@
       <c r="D15" s="1">
         <v>900815000</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <v>1392240</v>
+      </c>
+      <c r="F15">
+        <v>7730.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1991</v>
       </c>
@@ -16550,9 +17068,14 @@
       <c r="D16" s="1">
         <v>965788000</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <v>1461760</v>
+      </c>
+      <c r="F16">
+        <v>17375.400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1992</v>
       </c>
@@ -16565,9 +17088,14 @@
       <c r="D17" s="1">
         <v>941991000</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>1506750</v>
+      </c>
+      <c r="F17">
+        <v>21880.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1993</v>
       </c>
@@ -16580,9 +17108,14 @@
       <c r="D18" s="1">
         <v>755979000</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <v>1535410</v>
+      </c>
+      <c r="F18">
+        <v>19070.400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1994</v>
       </c>
@@ -16595,9 +17128,14 @@
       <c r="D19" s="1">
         <v>748876000</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <v>1558260</v>
+      </c>
+      <c r="F19">
+        <v>22892.799999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1995</v>
       </c>
@@ -16610,9 +17148,14 @@
       <c r="D20" s="1">
         <v>804283000</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <v>1563370</v>
+      </c>
+      <c r="F20">
+        <v>18282.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1996</v>
       </c>
@@ -16625,9 +17168,14 @@
       <c r="D21" s="1">
         <v>781478000</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <v>1560090</v>
+      </c>
+      <c r="F21">
+        <v>22476.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1997</v>
       </c>
@@ -16640,9 +17188,14 @@
       <c r="D22" s="1">
         <v>948546000</v>
       </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <v>1547050</v>
+      </c>
+      <c r="F22">
+        <v>16383.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1998</v>
       </c>
@@ -16655,9 +17208,14 @@
       <c r="D23" s="1">
         <v>1223990000</v>
       </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <v>1541110</v>
+      </c>
+      <c r="F23">
+        <v>12989.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1999</v>
       </c>
@@ -16670,8 +17228,14 @@
       <c r="D24" s="1">
         <v>1317730000</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <v>1547980</v>
+      </c>
+      <c r="F24">
+        <v>16148.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -16684,8 +17248,14 @@
       <c r="D25" s="1">
         <v>1673490000</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <v>1572960</v>
+      </c>
+      <c r="F25">
+        <v>24160.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2001</v>
       </c>
@@ -16698,8 +17268,14 @@
       <c r="D26" s="1">
         <v>1090930000</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <v>1615140</v>
+      </c>
+      <c r="F26">
+        <v>19906.900000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2002</v>
       </c>
@@ -16712,8 +17288,14 @@
       <c r="D27" s="1">
         <v>980888000</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <v>1683290</v>
+      </c>
+      <c r="F27">
+        <v>21183.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2003</v>
       </c>
@@ -16726,8 +17308,14 @@
       <c r="D28" s="1">
         <v>898438000</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <v>1745290</v>
+      </c>
+      <c r="F28">
+        <v>30189.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2004</v>
       </c>
@@ -16740,8 +17328,14 @@
       <c r="D29" s="1">
         <v>945596000</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <v>1771970</v>
+      </c>
+      <c r="F29">
+        <v>15777.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2005</v>
       </c>
@@ -16754,8 +17348,14 @@
       <c r="D30" s="1">
         <v>963776000</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <v>1793340</v>
+      </c>
+      <c r="F30">
+        <v>20002.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2006</v>
       </c>
@@ -16768,8 +17368,14 @@
       <c r="D31" s="1">
         <v>901356000</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <v>1797400</v>
+      </c>
+      <c r="F31">
+        <v>27724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2007</v>
       </c>
@@ -16782,8 +17388,14 @@
       <c r="D32" s="1">
         <v>657857000</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <v>1787120</v>
+      </c>
+      <c r="F32">
+        <v>25524.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2008</v>
       </c>
@@ -16796,8 +17408,14 @@
       <c r="D33" s="1">
         <v>629211000</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <v>1770970</v>
+      </c>
+      <c r="F33">
+        <v>29279.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2009</v>
       </c>
@@ -16810,8 +17428,14 @@
       <c r="D34" s="1">
         <v>469784000</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <v>1734190</v>
+      </c>
+      <c r="F34">
+        <v>24937</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2010</v>
       </c>
@@ -16824,8 +17448,14 @@
       <c r="D35" s="1">
         <v>458856000</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="1">
+        <v>1683460</v>
+      </c>
+      <c r="F35">
+        <v>24520.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2011</v>
       </c>
@@ -16838,8 +17468,14 @@
       <c r="D36" s="1">
         <v>585089000</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <v>1618340</v>
+      </c>
+      <c r="F36">
+        <v>31158.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2012</v>
       </c>
@@ -16852,8 +17488,14 @@
       <c r="D37" s="1">
         <v>692029000</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="1">
+        <v>1537460</v>
+      </c>
+      <c r="F37">
+        <v>20923.400000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2013</v>
       </c>
@@ -16866,8 +17508,14 @@
       <c r="D38" s="1">
         <v>698914000</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
+        <v>1470620</v>
+      </c>
+      <c r="F38">
+        <v>21988.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2014</v>
       </c>
@@ -16880,8 +17528,14 @@
       <c r="D39" s="1">
         <v>569266000</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
+        <v>1414690</v>
+      </c>
+      <c r="F39">
+        <v>36633.800000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2015</v>
       </c>
@@ -16894,8 +17548,14 @@
       <c r="D40" s="1">
         <v>502817000</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="1">
+        <v>1354350</v>
+      </c>
+      <c r="F40">
+        <v>19463.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2016</v>
       </c>
@@ -16908,8 +17568,14 @@
       <c r="D41" s="1">
         <v>573959000</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="1">
+        <v>1314100</v>
+      </c>
+      <c r="F41">
+        <v>20101.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2017</v>
       </c>
@@ -16922,8 +17588,14 @@
       <c r="D42" s="1">
         <v>625645000</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="1">
+        <v>1270590</v>
+      </c>
+      <c r="F42">
+        <v>27128.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -16936,8 +17608,14 @@
       <c r="D43" s="1">
         <v>844390000</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="1">
+        <v>1223030</v>
+      </c>
+      <c r="F43">
+        <v>18974.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -16950,8 +17628,14 @@
       <c r="D44" s="1">
         <v>544636000</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="1">
+        <v>1193780</v>
+      </c>
+      <c r="F44">
+        <v>24658.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -16964,8 +17648,14 @@
       <c r="D45" s="1">
         <v>648490000</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="1">
+        <v>1172510</v>
+      </c>
+      <c r="F45">
+        <v>21209.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -16978,8 +17668,14 @@
       <c r="D46" s="1">
         <v>697959000</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="1">
+        <v>1157010</v>
+      </c>
+      <c r="F46">
+        <v>10007.200000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2022</v>
       </c>
@@ -16992,8 +17688,14 @@
       <c r="D47" s="1">
         <v>699896000</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="1">
+        <v>1151730</v>
+      </c>
+      <c r="F47">
+        <v>11643.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -17006,7 +17708,12 @@
       <c r="D48" s="1">
         <v>436000000</v>
       </c>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1">
+        <v>1148470</v>
+      </c>
+      <c r="F48">
+        <v>9048.64</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
